--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2883649.016111156</v>
+        <v>-2884472.431210844</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2731257.168739378</v>
+        <v>2731257.168739379</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="S8" t="n">
+      <c r="V8" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0.5096686531243404</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>284.1260243564841</v>
+        <v>206.8178165643472</v>
       </c>
       <c r="E11" t="n">
-        <v>305.8681619263896</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>325.0399780143669</v>
       </c>
       <c r="G11" t="n">
-        <v>326.4544948093649</v>
+        <v>326.454494809365</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>239.2107011623955</v>
       </c>
       <c r="I11" t="n">
-        <v>66.12017415851106</v>
+        <v>66.12017415851111</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.5659441008892</v>
+        <v>88.56594410088924</v>
       </c>
       <c r="T11" t="n">
-        <v>42.00925247269623</v>
+        <v>134.8748230868716</v>
       </c>
       <c r="U11" t="n">
         <v>167.3252820663874</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>273.9398800724104</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>293.240138305157</v>
+        <v>293.2401383051571</v>
       </c>
       <c r="Y11" t="n">
         <v>304.6367361013558</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S12" t="n">
         <v>146.1160054094308</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.53866904202583</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>65.51922332772976</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>82.02815649136083</v>
+        <v>82.02815649136087</v>
       </c>
       <c r="H13" t="n">
-        <v>70.74035781437975</v>
+        <v>70.74035781437979</v>
       </c>
       <c r="I13" t="n">
-        <v>50.79357341598948</v>
+        <v>0.9682404143258286</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>52.59409953341378</v>
+        <v>52.59409953341383</v>
       </c>
       <c r="S13" t="n">
-        <v>122.547744390183</v>
+        <v>122.5477443901831</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>144.8832253714185</v>
       </c>
       <c r="U13" t="n">
         <v>199.33594395345</v>
       </c>
       <c r="V13" t="n">
-        <v>173.158250628597</v>
+        <v>173.1582506285971</v>
       </c>
       <c r="W13" t="n">
         <v>198.3251366992103</v>
@@ -1610,7 +1610,7 @@
         <v>293.1447203119561</v>
       </c>
       <c r="D14" t="n">
-        <v>243.3751747763527</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>305.8681619263896</v>
@@ -1622,10 +1622,10 @@
         <v>326.4544948093649</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>98.49566265234384</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>66.12017415851105</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.5659441008892</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>134.8748230868716</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>167.3252820663874</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S15" t="n">
         <v>146.1160054094308</v>
@@ -1765,22 +1765,22 @@
         <v>96.75011422897143</v>
       </c>
       <c r="C16" t="n">
-        <v>82.95010907437191</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>65.51922332772975</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>82.02815649136082</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>70.74035781437973</v>
+        <v>6.193067075107166</v>
       </c>
       <c r="I16" t="n">
         <v>50.79357341598947</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>52.59409953341378</v>
+        <v>52.59409953341377</v>
       </c>
       <c r="S16" t="n">
         <v>122.547744390183</v>
       </c>
       <c r="T16" t="n">
-        <v>48.16358243789323</v>
+        <v>144.8832253714184</v>
       </c>
       <c r="U16" t="n">
         <v>199.33594395345</v>
@@ -1825,7 +1825,7 @@
         <v>173.158250628597</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>198.3251366992103</v>
       </c>
       <c r="X16" t="n">
         <v>143.9702386950134</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S18" t="n">
         <v>146.1160054094308</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.58854118745055</v>
+        <v>27.47393612355876</v>
       </c>
       <c r="C19" t="n">
         <v>13.67393096895924</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>12.75197838594815</v>
+        <v>42.86658344983994</v>
       </c>
       <c r="H19" t="n">
-        <v>1.464179708967061</v>
+        <v>1.46417970896706</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.28976599547652</v>
+        <v>19.28976599547653</v>
       </c>
       <c r="T20" t="n">
         <v>65.5986449814589</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S21" t="n">
         <v>146.1160054094308</v>
@@ -2254,7 +2254,7 @@
         <v>12.75197838594815</v>
       </c>
       <c r="H22" t="n">
-        <v>1.464179708967061</v>
+        <v>1.46417970896706</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>53.27156628477034</v>
+        <v>83.38617134866203</v>
       </c>
       <c r="T22" t="n">
-        <v>105.7216523298974</v>
+        <v>75.60704726600574</v>
       </c>
       <c r="U22" t="n">
         <v>130.0597658480373</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.28976599547652</v>
+        <v>19.28976599547653</v>
       </c>
       <c r="T23" t="n">
         <v>65.5986449814589</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S24" t="n">
         <v>146.1160054094308</v>
@@ -2491,7 +2491,7 @@
         <v>12.75197838594815</v>
       </c>
       <c r="H25" t="n">
-        <v>1.464179708967061</v>
+        <v>1.46417970896706</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>75.60704726600574</v>
       </c>
       <c r="U25" t="n">
-        <v>160.1743709119291</v>
+        <v>130.0597658480373</v>
       </c>
       <c r="V25" t="n">
-        <v>103.8820725231843</v>
+        <v>133.9966775870761</v>
       </c>
       <c r="W25" t="n">
         <v>129.0489585937976</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.1976629109753</v>
+        <v>287.1976629109754</v>
       </c>
       <c r="C26" t="n">
         <v>275.2089798686571</v>
@@ -2570,10 +2570,10 @@
         <v>308.5187543660659</v>
       </c>
       <c r="H26" t="n">
-        <v>221.2749607190964</v>
+        <v>221.2749607190965</v>
       </c>
       <c r="I26" t="n">
-        <v>48.18443371521205</v>
+        <v>48.18443371521209</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.6302036575902</v>
+        <v>70.63020365759024</v>
       </c>
       <c r="T26" t="n">
         <v>116.9390826435726</v>
       </c>
       <c r="U26" t="n">
-        <v>149.3895416230883</v>
+        <v>149.3895416230884</v>
       </c>
       <c r="V26" t="n">
         <v>230.7040401511545</v>
@@ -2621,7 +2621,7 @@
         <v>275.304397861858</v>
       </c>
       <c r="Y26" t="n">
-        <v>286.7009956580567</v>
+        <v>286.7009956580568</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S27" t="n">
         <v>146.1160054094308</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.81437378567243</v>
+        <v>78.81437378567247</v>
       </c>
       <c r="C28" t="n">
-        <v>65.01436863107291</v>
+        <v>65.01436863107295</v>
       </c>
       <c r="D28" t="n">
-        <v>48.6357330286513</v>
+        <v>48.63573302865134</v>
       </c>
       <c r="E28" t="n">
-        <v>47.58348288443075</v>
+        <v>47.58348288443079</v>
       </c>
       <c r="F28" t="n">
-        <v>48.05040721261706</v>
+        <v>48.0504072126171</v>
       </c>
       <c r="G28" t="n">
-        <v>64.09241604806182</v>
+        <v>64.09241604806186</v>
       </c>
       <c r="H28" t="n">
-        <v>52.80461737108074</v>
+        <v>52.80461737108078</v>
       </c>
       <c r="I28" t="n">
-        <v>32.85783297269047</v>
+        <v>32.85783297269052</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65835909011479</v>
+        <v>34.6583590901148</v>
       </c>
       <c r="S28" t="n">
         <v>104.612003946884</v>
       </c>
       <c r="T28" t="n">
-        <v>126.9474849281194</v>
+        <v>126.9474849281195</v>
       </c>
       <c r="U28" t="n">
         <v>181.400203510151</v>
       </c>
       <c r="V28" t="n">
-        <v>155.222510185298</v>
+        <v>155.2225101852981</v>
       </c>
       <c r="W28" t="n">
         <v>180.3893962559113</v>
@@ -2810,7 +2810,7 @@
         <v>221.2749607190965</v>
       </c>
       <c r="I29" t="n">
-        <v>48.18443371521207</v>
+        <v>48.18443371521208</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.63020365759022</v>
+        <v>70.63020365759023</v>
       </c>
       <c r="T29" t="n">
         <v>116.9390826435726</v>
@@ -2858,7 +2858,7 @@
         <v>275.304397861858</v>
       </c>
       <c r="Y29" t="n">
-        <v>286.7009956580567</v>
+        <v>286.7009956580568</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S30" t="n">
         <v>146.1160054094308</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.81437378567244</v>
+        <v>78.81437378567246</v>
       </c>
       <c r="C31" t="n">
-        <v>65.01436863107293</v>
+        <v>65.01436863107294</v>
       </c>
       <c r="D31" t="n">
-        <v>48.63573302865132</v>
+        <v>48.63573302865133</v>
       </c>
       <c r="E31" t="n">
-        <v>47.58348288443077</v>
+        <v>47.58348288443078</v>
       </c>
       <c r="F31" t="n">
-        <v>48.05040721261707</v>
+        <v>48.05040721261709</v>
       </c>
       <c r="G31" t="n">
-        <v>64.09241604806184</v>
+        <v>64.09241604806185</v>
       </c>
       <c r="H31" t="n">
-        <v>52.80461737108075</v>
+        <v>52.80461737108077</v>
       </c>
       <c r="I31" t="n">
-        <v>32.85783297269049</v>
+        <v>32.8578329726905</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.6583590901148</v>
+        <v>34.65835909011479</v>
       </c>
       <c r="S31" t="n">
         <v>104.612003946884</v>
@@ -3007,7 +3007,7 @@
         <v>181.400203510151</v>
       </c>
       <c r="V31" t="n">
-        <v>155.222510185298</v>
+        <v>155.2225101852981</v>
       </c>
       <c r="W31" t="n">
         <v>180.3893962559113</v>
@@ -3029,25 +3029,25 @@
         <v>284.1077837458341</v>
       </c>
       <c r="C32" t="n">
-        <v>272.1191007035158</v>
+        <v>272.1191007035159</v>
       </c>
       <c r="D32" t="n">
         <v>263.1004047480438</v>
       </c>
       <c r="E32" t="n">
-        <v>284.8425423179493</v>
+        <v>284.8425423179494</v>
       </c>
       <c r="F32" t="n">
-        <v>304.0143584059265</v>
+        <v>304.0143584059266</v>
       </c>
       <c r="G32" t="n">
-        <v>305.4288752009246</v>
+        <v>305.4288752009247</v>
       </c>
       <c r="H32" t="n">
-        <v>218.1850815539552</v>
+        <v>218.1850815539553</v>
       </c>
       <c r="I32" t="n">
-        <v>45.09455455007077</v>
+        <v>45.09455455007085</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.54032449244892</v>
+        <v>67.540324492449</v>
       </c>
       <c r="T32" t="n">
-        <v>113.8492034784313</v>
+        <v>113.8492034784314</v>
       </c>
       <c r="U32" t="n">
-        <v>146.2996624579471</v>
+        <v>146.2996624579472</v>
       </c>
       <c r="V32" t="n">
-        <v>227.6141609860132</v>
+        <v>227.6141609860133</v>
       </c>
       <c r="W32" t="n">
-        <v>252.9142604639701</v>
+        <v>252.9142604639702</v>
       </c>
       <c r="X32" t="n">
-        <v>272.2145186967167</v>
+        <v>272.2145186967168</v>
       </c>
       <c r="Y32" t="n">
-        <v>283.6111164929155</v>
+        <v>283.6111164929156</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S33" t="n">
         <v>146.1160054094308</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.72449462053115</v>
+        <v>75.72449462053123</v>
       </c>
       <c r="C34" t="n">
-        <v>61.92448946593163</v>
+        <v>61.92448946593171</v>
       </c>
       <c r="D34" t="n">
-        <v>45.54585386351002</v>
+        <v>45.5458538635101</v>
       </c>
       <c r="E34" t="n">
-        <v>44.49360371928947</v>
+        <v>44.49360371928955</v>
       </c>
       <c r="F34" t="n">
-        <v>44.96052804747578</v>
+        <v>44.96052804747586</v>
       </c>
       <c r="G34" t="n">
-        <v>61.00253688292054</v>
+        <v>61.00253688292062</v>
       </c>
       <c r="H34" t="n">
-        <v>49.71473820593945</v>
+        <v>49.71473820593953</v>
       </c>
       <c r="I34" t="n">
-        <v>29.76795380754919</v>
+        <v>29.76795380754927</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>31.56847992497349</v>
+        <v>31.56847992497357</v>
       </c>
       <c r="S34" t="n">
-        <v>101.5221247817427</v>
+        <v>101.5221247817428</v>
       </c>
       <c r="T34" t="n">
-        <v>123.8576057629781</v>
+        <v>123.8576057629782</v>
       </c>
       <c r="U34" t="n">
-        <v>178.3103243450097</v>
+        <v>178.3103243450098</v>
       </c>
       <c r="V34" t="n">
-        <v>152.1326310201567</v>
+        <v>152.1326310201568</v>
       </c>
       <c r="W34" t="n">
-        <v>177.29951709077</v>
+        <v>177.2995170907701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.9446190865731</v>
+        <v>122.9446190865732</v>
       </c>
       <c r="Y34" t="n">
-        <v>113.8194868426408</v>
+        <v>113.8194868426409</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>235.8572252488616</v>
+        <v>235.8572252488617</v>
       </c>
       <c r="C35" t="n">
-        <v>223.8685422065433</v>
+        <v>223.8685422065434</v>
       </c>
       <c r="D35" t="n">
-        <v>214.8498462510713</v>
+        <v>214.8498462510714</v>
       </c>
       <c r="E35" t="n">
-        <v>236.5919838209768</v>
+        <v>236.5919838209769</v>
       </c>
       <c r="F35" t="n">
-        <v>255.763799908954</v>
+        <v>255.7637999089541</v>
       </c>
       <c r="G35" t="n">
-        <v>257.1783167039521</v>
+        <v>257.1783167039522</v>
       </c>
       <c r="H35" t="n">
-        <v>169.9345230569827</v>
+        <v>169.9345230569828</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.28976599547644</v>
+        <v>19.28976599547653</v>
       </c>
       <c r="T35" t="n">
-        <v>65.59864498145882</v>
+        <v>65.5986449814589</v>
       </c>
       <c r="U35" t="n">
-        <v>98.04910396097461</v>
+        <v>98.04910396097469</v>
       </c>
       <c r="V35" t="n">
-        <v>179.3636024890407</v>
+        <v>179.3636024890408</v>
       </c>
       <c r="W35" t="n">
-        <v>204.6637019669976</v>
+        <v>204.6637019669977</v>
       </c>
       <c r="X35" t="n">
-        <v>223.9639601997442</v>
+        <v>223.9639601997443</v>
       </c>
       <c r="Y35" t="n">
-        <v>235.360557995943</v>
+        <v>235.3605579959431</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S36" t="n">
         <v>146.1160054094308</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.47393612355867</v>
+        <v>27.47393612355876</v>
       </c>
       <c r="C37" t="n">
-        <v>13.67393096895916</v>
+        <v>13.67393096895924</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>30.11460506389258</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>12.75197838594807</v>
+        <v>12.75197838594815</v>
       </c>
       <c r="H37" t="n">
-        <v>1.464179708966975</v>
+        <v>1.46417970896706</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>53.27156628477025</v>
+        <v>83.38617134866203</v>
       </c>
       <c r="T37" t="n">
-        <v>75.60704726600565</v>
+        <v>75.60704726600574</v>
       </c>
       <c r="U37" t="n">
-        <v>130.0597658480372</v>
+        <v>130.0597658480373</v>
       </c>
       <c r="V37" t="n">
         <v>103.8820725231843</v>
       </c>
       <c r="W37" t="n">
-        <v>129.0489585937975</v>
+        <v>129.0489585937976</v>
       </c>
       <c r="X37" t="n">
-        <v>74.69406058960064</v>
+        <v>74.69406058960072</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.56892834566833</v>
+        <v>65.56892834566841</v>
       </c>
     </row>
     <row r="38">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S39" t="n">
         <v>146.1160054094308</v>
@@ -3676,7 +3676,7 @@
         <v>12.75197838594815</v>
       </c>
       <c r="H40" t="n">
-        <v>1.464179708967061</v>
+        <v>1.46417970896706</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>235.8572252488617</v>
+        <v>235.8572252488616</v>
       </c>
       <c r="C41" t="n">
-        <v>223.8685422065434</v>
+        <v>223.8685422065433</v>
       </c>
       <c r="D41" t="n">
-        <v>214.8498462510714</v>
+        <v>214.8498462510713</v>
       </c>
       <c r="E41" t="n">
-        <v>236.5919838209769</v>
+        <v>236.5919838209768</v>
       </c>
       <c r="F41" t="n">
-        <v>255.7637999089541</v>
+        <v>255.763799908954</v>
       </c>
       <c r="G41" t="n">
-        <v>257.1783167039522</v>
+        <v>257.1783167039521</v>
       </c>
       <c r="H41" t="n">
-        <v>169.9345230569828</v>
+        <v>169.9345230569827</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.28976599547649</v>
+        <v>19.2897659954764</v>
       </c>
       <c r="T41" t="n">
-        <v>65.59864498145888</v>
+        <v>65.59864498145879</v>
       </c>
       <c r="U41" t="n">
-        <v>98.04910396097466</v>
+        <v>98.04910396097458</v>
       </c>
       <c r="V41" t="n">
-        <v>179.3636024890408</v>
+        <v>179.3636024890407</v>
       </c>
       <c r="W41" t="n">
-        <v>204.6637019669977</v>
+        <v>204.6637019669976</v>
       </c>
       <c r="X41" t="n">
-        <v>223.9639601997443</v>
+        <v>223.9639601997442</v>
       </c>
       <c r="Y41" t="n">
-        <v>235.3605579959431</v>
+        <v>235.360557995943</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S42" t="n">
         <v>146.1160054094308</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.47393612355873</v>
+        <v>27.47393612355864</v>
       </c>
       <c r="C43" t="n">
-        <v>13.67393096895921</v>
+        <v>13.67393096895913</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>12.75197838594812</v>
+        <v>12.75197838594804</v>
       </c>
       <c r="H43" t="n">
-        <v>1.464179708967032</v>
+        <v>31.57878477285999</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>53.27156628477031</v>
+        <v>53.27156628477022</v>
       </c>
       <c r="T43" t="n">
-        <v>105.7216523298978</v>
+        <v>75.60704726600562</v>
       </c>
       <c r="U43" t="n">
-        <v>130.0597658480373</v>
+        <v>130.0597658480372</v>
       </c>
       <c r="V43" t="n">
-        <v>103.8820725231843</v>
+        <v>103.8820725231842</v>
       </c>
       <c r="W43" t="n">
-        <v>129.0489585937976</v>
+        <v>129.0489585937975</v>
       </c>
       <c r="X43" t="n">
-        <v>74.6940605896007</v>
+        <v>74.69406058960061</v>
       </c>
       <c r="Y43" t="n">
-        <v>65.56892834566838</v>
+        <v>65.5689283456683</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235.8572252488617</v>
+        <v>235.8572252488616</v>
       </c>
       <c r="C44" t="n">
         <v>223.8685422065434</v>
       </c>
       <c r="D44" t="n">
-        <v>214.8498462510714</v>
+        <v>214.8498462510713</v>
       </c>
       <c r="E44" t="n">
         <v>236.5919838209769</v>
       </c>
       <c r="F44" t="n">
-        <v>255.7637999089541</v>
+        <v>255.763799908954</v>
       </c>
       <c r="G44" t="n">
         <v>257.1783167039522</v>
       </c>
       <c r="H44" t="n">
-        <v>169.9345230569828</v>
+        <v>169.9345230569827</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.28976599547649</v>
+        <v>19.28976599547646</v>
       </c>
       <c r="T44" t="n">
-        <v>65.59864498145888</v>
+        <v>65.59864498145885</v>
       </c>
       <c r="U44" t="n">
-        <v>98.04910396097466</v>
+        <v>98.04910396097463</v>
       </c>
       <c r="V44" t="n">
-        <v>179.3636024890408</v>
+        <v>179.3636024890407</v>
       </c>
       <c r="W44" t="n">
-        <v>204.6637019669977</v>
+        <v>204.6637019669976</v>
       </c>
       <c r="X44" t="n">
         <v>223.9639601997443</v>
       </c>
       <c r="Y44" t="n">
-        <v>235.3605579959431</v>
+        <v>235.360557995943</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.9535880016403</v>
+        <v>41.95358800164028</v>
       </c>
       <c r="S45" t="n">
         <v>146.1160054094308</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.47393612355873</v>
+        <v>27.4739361235587</v>
       </c>
       <c r="C46" t="n">
-        <v>13.67393096895921</v>
+        <v>13.67393096895918</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,16 +4147,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>12.75197838594812</v>
+        <v>12.7519783859481</v>
       </c>
       <c r="H46" t="n">
-        <v>1.464179708967032</v>
+        <v>1.464179708967003</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>30.11460506389212</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>53.27156628477031</v>
+        <v>53.27156628477028</v>
       </c>
       <c r="T46" t="n">
-        <v>75.60704726600571</v>
+        <v>105.721652329898</v>
       </c>
       <c r="U46" t="n">
         <v>130.0597658480373</v>
@@ -4198,10 +4198,10 @@
         <v>129.0489585937976</v>
       </c>
       <c r="X46" t="n">
-        <v>74.6940605896007</v>
+        <v>74.69406058960067</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.56892834566838</v>
+        <v>65.56892834566835</v>
       </c>
     </row>
   </sheetData>
@@ -4802,7 +4802,7 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K8" t="n">
         <v>12.77895294797866</v>
@@ -4811,40 +4811,40 @@
         <v>12.77895294797866</v>
       </c>
       <c r="M8" t="n">
-        <v>12.77895294797866</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="N8" t="n">
-        <v>12.77895294797866</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="O8" t="n">
-        <v>24.12475229431485</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="P8" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q8" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R8" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="S8" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="T8" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="U8" t="n">
         <v>35.70820421600757</v>
       </c>
-      <c r="S8" t="n">
+      <c r="V8" t="n">
         <v>23.64462171059961</v>
       </c>
-      <c r="T8" t="n">
+      <c r="W8" t="n">
         <v>23.64462171059961</v>
       </c>
-      <c r="U8" t="n">
-        <v>23.12980488926189</v>
-      </c>
-      <c r="V8" t="n">
-        <v>23.12980488926189</v>
-      </c>
-      <c r="W8" t="n">
-        <v>23.12980488926189</v>
-      </c>
       <c r="X8" t="n">
-        <v>23.12980488926189</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="Y8" t="n">
         <v>23.12980488926189</v>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="C9" t="n">
         <v>13.01901823983628</v>
@@ -4884,16 +4884,16 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K9" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="L9" t="n">
-        <v>24.60247016152901</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="M9" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N9" t="n">
-        <v>36.42598737507935</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O9" t="n">
         <v>47.77178672141554</v>
@@ -4905,28 +4905,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S9" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="T9" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="U9" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="V9" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="W9" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X9" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="Y9" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="C10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="D10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="E10" t="n">
         <v>37.14618325065221</v>
       </c>
       <c r="F10" t="n">
+        <v>37.14618325065221</v>
+      </c>
+      <c r="G10" t="n">
+        <v>37.14618325065221</v>
+      </c>
+      <c r="H10" t="n">
         <v>25.08260074524424</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>13.01901823983628</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.9554357344283108</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9554357344283108</v>
       </c>
       <c r="J10" t="n">
         <v>0.9554357344283108</v>
@@ -4969,43 +4969,43 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="M10" t="n">
-        <v>12.3012350807645</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="N10" t="n">
-        <v>24.12475229431485</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="O10" t="n">
-        <v>35.94826950786519</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="P10" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="R10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="S10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="T10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="U10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="V10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="W10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="X10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1043.151791362825</v>
+        <v>1226.055134249932</v>
       </c>
       <c r="C11" t="n">
-        <v>1043.151791362825</v>
+        <v>1226.055134249932</v>
       </c>
       <c r="D11" t="n">
-        <v>756.1558071643562</v>
+        <v>1017.1482488314</v>
       </c>
       <c r="E11" t="n">
-        <v>447.1980678447708</v>
+        <v>1017.1482488314</v>
       </c>
       <c r="F11" t="n">
-        <v>447.1980678447708</v>
+        <v>688.8250387158776</v>
       </c>
       <c r="G11" t="n">
-        <v>117.4460528858166</v>
+        <v>359.0730237569232</v>
       </c>
       <c r="H11" t="n">
         <v>117.4460528858166</v>
@@ -5039,19 +5039,19 @@
         <v>50.65799818024986</v>
       </c>
       <c r="J11" t="n">
-        <v>166.2446103186537</v>
+        <v>50.65799818024986</v>
       </c>
       <c r="K11" t="n">
-        <v>471.7121970530027</v>
+        <v>307.1525171913286</v>
       </c>
       <c r="L11" t="n">
-        <v>900.6417565878276</v>
+        <v>736.0820767261534</v>
       </c>
       <c r="M11" t="n">
         <v>1219.498515947682</v>
       </c>
       <c r="N11" t="n">
-        <v>1689.466310157904</v>
+        <v>1689.466310157905</v>
       </c>
       <c r="O11" t="n">
         <v>2081.00058219126</v>
@@ -5069,22 +5069,22 @@
         <v>2443.439359415635</v>
       </c>
       <c r="T11" t="n">
-        <v>2401.005771059376</v>
+        <v>2307.202164378391</v>
       </c>
       <c r="U11" t="n">
-        <v>2231.990334628681</v>
+        <v>2138.186727947697</v>
       </c>
       <c r="V11" t="n">
-        <v>2231.990334628681</v>
+        <v>2138.186727947697</v>
       </c>
       <c r="W11" t="n">
-        <v>1955.28338506059</v>
+        <v>2138.186727947697</v>
       </c>
       <c r="X11" t="n">
-        <v>1659.081225156391</v>
+        <v>1841.984568043498</v>
       </c>
       <c r="Y11" t="n">
-        <v>1351.367350306537</v>
+        <v>1534.270693193644</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>917.3299698356717</v>
+        <v>917.3299698356712</v>
       </c>
       <c r="C12" t="n">
-        <v>755.6262970766265</v>
+        <v>755.6262970766261</v>
       </c>
       <c r="D12" t="n">
-        <v>616.7876600668385</v>
+        <v>616.787660066838</v>
       </c>
       <c r="E12" t="n">
-        <v>469.7596501237097</v>
+        <v>469.7596501237092</v>
       </c>
       <c r="F12" t="n">
-        <v>335.0658520735841</v>
+        <v>335.0658520735836</v>
       </c>
       <c r="G12" t="n">
-        <v>206.61771200514</v>
+        <v>206.6177120051398</v>
       </c>
       <c r="H12" t="n">
         <v>109.3875410343538</v>
@@ -5121,22 +5121,22 @@
         <v>136.8728993259475</v>
       </c>
       <c r="K12" t="n">
-        <v>136.8728993259475</v>
+        <v>410.7345164872124</v>
       </c>
       <c r="L12" t="n">
-        <v>562.3571165816833</v>
+        <v>836.2187337429482</v>
       </c>
       <c r="M12" t="n">
-        <v>1117.013644223538</v>
+        <v>1390.875261384803</v>
       </c>
       <c r="N12" t="n">
-        <v>1699.745182727333</v>
+        <v>1973.606799888598</v>
       </c>
       <c r="O12" t="n">
-        <v>2157.322463044433</v>
+        <v>2431.184080205698</v>
       </c>
       <c r="P12" t="n">
-        <v>2511.889453037507</v>
+        <v>2532.899909012493</v>
       </c>
       <c r="Q12" t="n">
         <v>2532.899909012493</v>
@@ -5145,10 +5145,10 @@
         <v>2490.522547394674</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.930622738683</v>
+        <v>2342.930622738684</v>
       </c>
       <c r="T12" t="n">
-        <v>2155.375566078798</v>
+        <v>2155.375566078797</v>
       </c>
       <c r="U12" t="n">
         <v>1936.899218407915</v>
@@ -5160,10 +5160,10 @@
         <v>1467.187727089559</v>
       </c>
       <c r="X12" t="n">
-        <v>1269.270738967354</v>
+        <v>1269.270738967353</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.749412616933</v>
+        <v>1076.749412616932</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>322.4573022706134</v>
+        <v>205.9476494126405</v>
       </c>
       <c r="C13" t="n">
-        <v>322.4573022706134</v>
+        <v>205.9476494126405</v>
       </c>
       <c r="D13" t="n">
-        <v>322.4573022706134</v>
+        <v>205.9476494126405</v>
       </c>
       <c r="E13" t="n">
-        <v>256.2762686062399</v>
+        <v>205.9476494126405</v>
       </c>
       <c r="F13" t="n">
-        <v>256.2762686062399</v>
+        <v>205.9476494126405</v>
       </c>
       <c r="G13" t="n">
-        <v>173.4195448775926</v>
+        <v>123.0909256839929</v>
       </c>
       <c r="H13" t="n">
-        <v>101.9646379943807</v>
+        <v>51.636018800781</v>
       </c>
       <c r="I13" t="n">
         <v>50.65799818024986</v>
       </c>
       <c r="J13" t="n">
-        <v>92.20284555917317</v>
+        <v>92.20284555917314</v>
       </c>
       <c r="K13" t="n">
         <v>236.6914878212668</v>
       </c>
       <c r="L13" t="n">
-        <v>455.667853272935</v>
+        <v>455.6678532729347</v>
       </c>
       <c r="M13" t="n">
-        <v>693.8924292330556</v>
+        <v>693.8924292330552</v>
       </c>
       <c r="N13" t="n">
-        <v>931.6872003761925</v>
+        <v>931.6872003761921</v>
       </c>
       <c r="O13" t="n">
-        <v>1146.83217147495</v>
+        <v>1146.832171474949</v>
       </c>
       <c r="P13" t="n">
-        <v>1321.782494086457</v>
+        <v>1321.782494086456</v>
       </c>
       <c r="Q13" t="n">
-        <v>1387.422140041295</v>
+        <v>1387.422140041294</v>
       </c>
       <c r="R13" t="n">
-        <v>1334.296786977241</v>
+        <v>1334.29678697724</v>
       </c>
       <c r="S13" t="n">
         <v>1210.511186583116</v>
       </c>
       <c r="T13" t="n">
-        <v>1210.511186583116</v>
+        <v>1064.164494288754</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.161748246298</v>
+        <v>862.8150559519355</v>
       </c>
       <c r="V13" t="n">
-        <v>834.2544243790281</v>
+        <v>687.9077320846657</v>
       </c>
       <c r="W13" t="n">
-        <v>633.9260034707349</v>
+        <v>487.5793111763724</v>
       </c>
       <c r="X13" t="n">
-        <v>488.5015199404184</v>
+        <v>342.1548276460558</v>
       </c>
       <c r="Y13" t="n">
-        <v>352.2943417070031</v>
+        <v>205.9476494126405</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1562.988611355804</v>
+        <v>1483.433724521968</v>
       </c>
       <c r="C14" t="n">
-        <v>1266.882833262919</v>
+        <v>1187.327946429083</v>
       </c>
       <c r="D14" t="n">
-        <v>1021.049323387815</v>
+        <v>1187.327946429083</v>
       </c>
       <c r="E14" t="n">
-        <v>712.0915840682298</v>
+        <v>878.3702071094974</v>
       </c>
       <c r="F14" t="n">
-        <v>383.7683739527079</v>
+        <v>550.0469969939754</v>
       </c>
       <c r="G14" t="n">
-        <v>54.01635899375341</v>
+        <v>220.294982035021</v>
       </c>
       <c r="H14" t="n">
-        <v>54.01635899375341</v>
+        <v>120.8044136993201</v>
       </c>
       <c r="I14" t="n">
         <v>54.01635899375341</v>
       </c>
       <c r="J14" t="n">
-        <v>169.6029711321571</v>
+        <v>169.6029711321573</v>
       </c>
       <c r="K14" t="n">
-        <v>475.0705578665061</v>
+        <v>475.0705578665064</v>
       </c>
       <c r="L14" t="n">
-        <v>904.000117401331</v>
+        <v>904.0001174013312</v>
       </c>
       <c r="M14" t="n">
         <v>1387.41655662286</v>
@@ -5303,25 +5303,25 @@
         <v>2700.817949687671</v>
       </c>
       <c r="S14" t="n">
-        <v>2611.357400090813</v>
+        <v>2700.817949687671</v>
       </c>
       <c r="T14" t="n">
-        <v>2475.120205053569</v>
+        <v>2564.580754650427</v>
       </c>
       <c r="U14" t="n">
-        <v>2475.120205053569</v>
+        <v>2395.565318219733</v>
       </c>
       <c r="V14" t="n">
-        <v>2475.120205053569</v>
+        <v>2395.565318219733</v>
       </c>
       <c r="W14" t="n">
-        <v>2475.120205053569</v>
+        <v>2395.565318219733</v>
       </c>
       <c r="X14" t="n">
-        <v>2178.91804514937</v>
+        <v>2099.363158315534</v>
       </c>
       <c r="Y14" t="n">
-        <v>1871.204170299516</v>
+        <v>1791.64928346568</v>
       </c>
     </row>
     <row r="15">
@@ -5361,7 +5361,7 @@
         <v>414.0928773007159</v>
       </c>
       <c r="L15" t="n">
-        <v>839.5770945564516</v>
+        <v>839.5770945564517</v>
       </c>
       <c r="M15" t="n">
         <v>1394.233622198307</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>409.603652048129</v>
+        <v>111.5786221160733</v>
       </c>
       <c r="C16" t="n">
-        <v>325.815663084117</v>
+        <v>111.5786221160733</v>
       </c>
       <c r="D16" t="n">
-        <v>325.815663084117</v>
+        <v>111.5786221160733</v>
       </c>
       <c r="E16" t="n">
-        <v>259.6346294197434</v>
+        <v>111.5786221160733</v>
       </c>
       <c r="F16" t="n">
-        <v>259.6346294197434</v>
+        <v>111.5786221160733</v>
       </c>
       <c r="G16" t="n">
-        <v>176.7779056910961</v>
+        <v>111.5786221160733</v>
       </c>
       <c r="H16" t="n">
         <v>105.3229988078842</v>
@@ -5434,7 +5434,7 @@
         <v>54.01635899375341</v>
       </c>
       <c r="J16" t="n">
-        <v>95.56120637267674</v>
+        <v>95.56120637267675</v>
       </c>
       <c r="K16" t="n">
         <v>240.0498486347704</v>
@@ -5443,7 +5443,7 @@
         <v>459.0262140864384</v>
       </c>
       <c r="M16" t="n">
-        <v>697.2507900465589</v>
+        <v>697.250790046559</v>
       </c>
       <c r="N16" t="n">
         <v>935.0455611896958</v>
@@ -5464,22 +5464,22 @@
         <v>1213.86954739662</v>
       </c>
       <c r="T16" t="n">
-        <v>1165.219464126021</v>
+        <v>1067.522855102258</v>
       </c>
       <c r="U16" t="n">
-        <v>963.8700257892026</v>
+        <v>866.1734167654395</v>
       </c>
       <c r="V16" t="n">
-        <v>788.962701921933</v>
+        <v>691.2660928981697</v>
       </c>
       <c r="W16" t="n">
-        <v>788.962701921933</v>
+        <v>490.9376719898765</v>
       </c>
       <c r="X16" t="n">
-        <v>643.5382183916164</v>
+        <v>345.5131884595606</v>
       </c>
       <c r="Y16" t="n">
-        <v>507.3310401582012</v>
+        <v>209.3060102261454</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1425.922431668987</v>
+        <v>1425.922431668986</v>
       </c>
       <c r="C17" t="n">
-        <v>1199.792591056317</v>
+        <v>1199.792591056316</v>
       </c>
       <c r="D17" t="n">
-        <v>982.7725443380632</v>
+        <v>982.7725443380621</v>
       </c>
       <c r="E17" t="n">
-        <v>743.7907424986926</v>
+        <v>743.7907424986914</v>
       </c>
       <c r="F17" t="n">
-        <v>485.4434698633854</v>
+        <v>485.4434698633843</v>
       </c>
       <c r="G17" t="n">
         <v>225.6673923846451</v>
@@ -5513,13 +5513,13 @@
         <v>54.01635899375341</v>
       </c>
       <c r="J17" t="n">
-        <v>169.6029711321571</v>
+        <v>169.6029711321572</v>
       </c>
       <c r="K17" t="n">
-        <v>475.0705578665061</v>
+        <v>475.0705578665064</v>
       </c>
       <c r="L17" t="n">
-        <v>904.000117401331</v>
+        <v>904.0001174013312</v>
       </c>
       <c r="M17" t="n">
         <v>1387.41655662286</v>
@@ -5540,25 +5540,25 @@
         <v>2700.817949687671</v>
       </c>
       <c r="S17" t="n">
-        <v>2681.333337571029</v>
+        <v>2681.333337571028</v>
       </c>
       <c r="T17" t="n">
-        <v>2615.072080014</v>
+        <v>2615.072080013999</v>
       </c>
       <c r="U17" t="n">
         <v>2516.03258106352</v>
       </c>
       <c r="V17" t="n">
-        <v>2334.857225013984</v>
+        <v>2334.857225013983</v>
       </c>
       <c r="W17" t="n">
-        <v>2128.126212926108</v>
+        <v>2128.126212926107</v>
       </c>
       <c r="X17" t="n">
-        <v>1901.899990502124</v>
+        <v>1901.899990502122</v>
       </c>
       <c r="Y17" t="n">
-        <v>1664.162053132484</v>
+        <v>1664.162053132483</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1085.24801051085</v>
+        <v>920.6883306491753</v>
       </c>
       <c r="C18" t="n">
-        <v>923.5443377518043</v>
+        <v>758.9846578901301</v>
       </c>
       <c r="D18" t="n">
-        <v>784.7057007420163</v>
+        <v>620.1460208803421</v>
       </c>
       <c r="E18" t="n">
-        <v>637.6776907988876</v>
+        <v>473.1180109372133</v>
       </c>
       <c r="F18" t="n">
-        <v>502.9838927487619</v>
+        <v>338.4242128870876</v>
       </c>
       <c r="G18" t="n">
-        <v>374.5357526803179</v>
+        <v>209.9760728186436</v>
       </c>
       <c r="H18" t="n">
-        <v>277.3055817095317</v>
+        <v>112.7459018478574</v>
       </c>
       <c r="I18" t="n">
-        <v>218.5760388554277</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J18" t="n">
-        <v>304.7909400011254</v>
+        <v>140.2312601394511</v>
       </c>
       <c r="K18" t="n">
-        <v>578.6525571623902</v>
+        <v>414.0928773007159</v>
       </c>
       <c r="L18" t="n">
-        <v>1004.136774418126</v>
+        <v>839.5770945564517</v>
       </c>
       <c r="M18" t="n">
-        <v>1558.793302059981</v>
+        <v>1394.233622198307</v>
       </c>
       <c r="N18" t="n">
-        <v>1695.82652838839</v>
+        <v>1531.266848526716</v>
       </c>
       <c r="O18" t="n">
-        <v>2153.40380870549</v>
+        <v>1988.844128843815</v>
       </c>
       <c r="P18" t="n">
-        <v>2507.970798698564</v>
+        <v>2343.411118836889</v>
       </c>
       <c r="Q18" t="n">
-        <v>2700.817949687671</v>
+        <v>2536.258269825996</v>
       </c>
       <c r="R18" t="n">
-        <v>2658.440588069852</v>
+        <v>2493.880908208178</v>
       </c>
       <c r="S18" t="n">
-        <v>2510.848663413861</v>
+        <v>2346.288983552187</v>
       </c>
       <c r="T18" t="n">
-        <v>2323.293606753975</v>
+        <v>2158.733926892301</v>
       </c>
       <c r="U18" t="n">
-        <v>2104.817259083093</v>
+        <v>1940.257579221419</v>
       </c>
       <c r="V18" t="n">
-        <v>1876.421636531427</v>
+        <v>1711.861956669753</v>
       </c>
       <c r="W18" t="n">
-        <v>1635.105767764737</v>
+        <v>1470.546087903063</v>
       </c>
       <c r="X18" t="n">
-        <v>1437.188779642531</v>
+        <v>1272.629099780857</v>
       </c>
       <c r="Y18" t="n">
-        <v>1244.66745329211</v>
+        <v>1080.107773430436</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.18816612898014</v>
+        <v>112.6069591228102</v>
       </c>
       <c r="C19" t="n">
-        <v>68.37611464518292</v>
+        <v>98.79490763901302</v>
       </c>
       <c r="D19" t="n">
-        <v>68.37611464518292</v>
+        <v>98.79490763901302</v>
       </c>
       <c r="E19" t="n">
-        <v>68.37611464518292</v>
+        <v>98.79490763901302</v>
       </c>
       <c r="F19" t="n">
-        <v>68.37611464518292</v>
+        <v>98.79490763901302</v>
       </c>
       <c r="G19" t="n">
         <v>55.49532839675044</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1425.922431668986</v>
+        <v>1425.922431668987</v>
       </c>
       <c r="C20" t="n">
         <v>1199.792591056316</v>
       </c>
       <c r="D20" t="n">
-        <v>982.7725443380618</v>
+        <v>982.7725443380621</v>
       </c>
       <c r="E20" t="n">
-        <v>743.7907424986912</v>
+        <v>743.7907424986914</v>
       </c>
       <c r="F20" t="n">
-        <v>485.4434698633841</v>
+        <v>485.4434698633843</v>
       </c>
       <c r="G20" t="n">
         <v>225.6673923846451</v>
@@ -5750,7 +5750,7 @@
         <v>54.01635899375341</v>
       </c>
       <c r="J20" t="n">
-        <v>169.6029711321571</v>
+        <v>169.602971132157</v>
       </c>
       <c r="K20" t="n">
         <v>475.0705578665061</v>
@@ -5780,19 +5780,19 @@
         <v>2681.333337571028</v>
       </c>
       <c r="T20" t="n">
-        <v>2615.072080013998</v>
+        <v>2615.072080013999</v>
       </c>
       <c r="U20" t="n">
-        <v>2516.032581063519</v>
+        <v>2516.03258106352</v>
       </c>
       <c r="V20" t="n">
         <v>2334.857225013983</v>
       </c>
       <c r="W20" t="n">
-        <v>2128.126212926106</v>
+        <v>2128.126212926107</v>
       </c>
       <c r="X20" t="n">
-        <v>1901.899990502122</v>
+        <v>1901.899990502123</v>
       </c>
       <c r="Y20" t="n">
         <v>1664.162053132483</v>
@@ -5835,19 +5835,19 @@
         <v>414.0928773007159</v>
       </c>
       <c r="L21" t="n">
-        <v>839.5770945564516</v>
+        <v>586.7259333701727</v>
       </c>
       <c r="M21" t="n">
-        <v>1394.233622198307</v>
+        <v>1141.382461012028</v>
       </c>
       <c r="N21" t="n">
-        <v>1531.266848526716</v>
+        <v>1724.113999515822</v>
       </c>
       <c r="O21" t="n">
-        <v>1988.844128843815</v>
+        <v>2181.691279832922</v>
       </c>
       <c r="P21" t="n">
-        <v>2343.411118836889</v>
+        <v>2536.258269825996</v>
       </c>
       <c r="Q21" t="n">
         <v>2536.258269825996</v>
@@ -5935,7 +5935,7 @@
         <v>778.875984955763</v>
       </c>
       <c r="S22" t="n">
-        <v>725.0663220418536</v>
+        <v>694.6475290480236</v>
       </c>
       <c r="T22" t="n">
         <v>618.2767742338764</v>
@@ -5987,13 +5987,13 @@
         <v>54.01635899375341</v>
       </c>
       <c r="J23" t="n">
-        <v>169.6029711321572</v>
+        <v>169.602971132157</v>
       </c>
       <c r="K23" t="n">
-        <v>475.0705578665063</v>
+        <v>475.0705578665061</v>
       </c>
       <c r="L23" t="n">
-        <v>904.0001174013312</v>
+        <v>904.000117401331</v>
       </c>
       <c r="M23" t="n">
         <v>1387.41655662286</v>
@@ -6066,25 +6066,25 @@
         <v>54.01635899375341</v>
       </c>
       <c r="J24" t="n">
-        <v>140.2312601394511</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="K24" t="n">
-        <v>414.0928773007159</v>
+        <v>327.8779761550182</v>
       </c>
       <c r="L24" t="n">
-        <v>839.5770945564516</v>
+        <v>753.362193410754</v>
       </c>
       <c r="M24" t="n">
-        <v>1394.233622198307</v>
+        <v>1308.018721052609</v>
       </c>
       <c r="N24" t="n">
-        <v>1531.266848526716</v>
+        <v>1724.113999515822</v>
       </c>
       <c r="O24" t="n">
-        <v>1988.844128843815</v>
+        <v>2181.691279832922</v>
       </c>
       <c r="P24" t="n">
-        <v>2343.411118836889</v>
+        <v>2536.258269825996</v>
       </c>
       <c r="Q24" t="n">
         <v>2536.258269825996</v>
@@ -6178,7 +6178,7 @@
         <v>648.6955672277064</v>
       </c>
       <c r="U25" t="n">
-        <v>486.903273377273</v>
+        <v>517.322066371103</v>
       </c>
       <c r="V25" t="n">
         <v>381.9718869902181</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1801.557898288067</v>
+        <v>1801.557898288069</v>
       </c>
       <c r="C26" t="n">
-        <v>1523.569029733868</v>
+        <v>1523.569029733869</v>
       </c>
       <c r="D26" t="n">
-        <v>1254.689955074085</v>
+        <v>1254.689955074086</v>
       </c>
       <c r="E26" t="n">
-        <v>963.8491252931858</v>
+        <v>963.8491252931867</v>
       </c>
       <c r="F26" t="n">
-        <v>653.6428247163498</v>
+        <v>653.6428247163503</v>
       </c>
       <c r="G26" t="n">
-        <v>342.0077192960812</v>
+        <v>342.0077192960816</v>
       </c>
       <c r="H26" t="n">
-        <v>118.4976579636605</v>
+        <v>118.4976579636606</v>
       </c>
       <c r="I26" t="n">
-        <v>69.82651279677967</v>
+        <v>69.8265127967797</v>
       </c>
       <c r="J26" t="n">
         <v>287.2895117349284</v>
@@ -6236,40 +6236,40 @@
         <v>1810.732257624866</v>
       </c>
       <c r="N26" t="n">
-        <v>2296.96093943984</v>
+        <v>2296.960939439842</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.37159827294</v>
+        <v>2790.371598272942</v>
       </c>
       <c r="P26" t="n">
-        <v>3194.255967926569</v>
+        <v>3194.255967926571</v>
       </c>
       <c r="Q26" t="n">
-        <v>3446.023698693663</v>
+        <v>3446.023698693665</v>
       </c>
       <c r="R26" t="n">
-        <v>3491.325639838984</v>
+        <v>3491.325639838985</v>
       </c>
       <c r="S26" t="n">
-        <v>3419.981999780812</v>
+        <v>3419.981999780813</v>
       </c>
       <c r="T26" t="n">
-        <v>3301.861714282254</v>
+        <v>3301.861714282255</v>
       </c>
       <c r="U26" t="n">
-        <v>3150.963187390245</v>
+        <v>3150.963187390246</v>
       </c>
       <c r="V26" t="n">
-        <v>2917.92880339918</v>
+        <v>2917.928803399181</v>
       </c>
       <c r="W26" t="n">
-        <v>2659.338763369775</v>
+        <v>2659.338763369776</v>
       </c>
       <c r="X26" t="n">
         <v>2381.253513004262</v>
       </c>
       <c r="Y26" t="n">
-        <v>2091.656547693093</v>
+        <v>2091.656547693094</v>
       </c>
     </row>
     <row r="27">
@@ -6294,22 +6294,22 @@
         <v>354.2343666901139</v>
       </c>
       <c r="G27" t="n">
-        <v>225.7862266216698</v>
+        <v>225.7862266216699</v>
       </c>
       <c r="H27" t="n">
-        <v>128.5560556508836</v>
+        <v>128.5560556508837</v>
       </c>
       <c r="I27" t="n">
-        <v>69.82651279677967</v>
+        <v>69.8265127967797</v>
       </c>
       <c r="J27" t="n">
-        <v>156.0414139424773</v>
+        <v>156.0414139424774</v>
       </c>
       <c r="K27" t="n">
-        <v>429.9030311037421</v>
+        <v>429.9030311037423</v>
       </c>
       <c r="L27" t="n">
-        <v>855.3872483594779</v>
+        <v>855.387248359478</v>
       </c>
       <c r="M27" t="n">
         <v>1410.043776001333</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.4920260781989</v>
+        <v>432.4920260781994</v>
       </c>
       <c r="C28" t="n">
-        <v>366.8209466528727</v>
+        <v>366.8209466528731</v>
       </c>
       <c r="D28" t="n">
-        <v>317.693943593629</v>
+        <v>317.6939435936293</v>
       </c>
       <c r="E28" t="n">
-        <v>269.6298194679414</v>
+        <v>269.6298194679417</v>
       </c>
       <c r="F28" t="n">
-        <v>221.094054606712</v>
+        <v>221.0940546067123</v>
       </c>
       <c r="G28" t="n">
-        <v>156.3542404167506</v>
+        <v>156.3542404167508</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0162430722246</v>
+        <v>103.0162430722247</v>
       </c>
       <c r="I28" t="n">
-        <v>69.82651279677967</v>
+        <v>69.8265127967797</v>
       </c>
       <c r="J28" t="n">
         <v>129.127743214569</v>
       </c>
       <c r="K28" t="n">
-        <v>291.3727685155278</v>
+        <v>291.3727685155286</v>
       </c>
       <c r="L28" t="n">
-        <v>528.1055170060617</v>
+        <v>528.1055170060625</v>
       </c>
       <c r="M28" t="n">
-        <v>784.0864760050484</v>
+        <v>784.0864760050491</v>
       </c>
       <c r="N28" t="n">
-        <v>1039.637630187051</v>
+        <v>1039.637630187052</v>
       </c>
       <c r="O28" t="n">
         <v>1272.538984324675</v>
@@ -6406,28 +6406,28 @@
         <v>1548.641718968752</v>
       </c>
       <c r="R28" t="n">
-        <v>1513.633275443383</v>
+        <v>1513.633275443384</v>
       </c>
       <c r="S28" t="n">
         <v>1407.964584587945</v>
       </c>
       <c r="T28" t="n">
-        <v>1279.734801832269</v>
+        <v>1279.73480183227</v>
       </c>
       <c r="U28" t="n">
         <v>1096.502273034137</v>
       </c>
       <c r="V28" t="n">
-        <v>939.7118587055527</v>
+        <v>939.7118587055534</v>
       </c>
       <c r="W28" t="n">
-        <v>757.5003473359453</v>
+        <v>757.500347335946</v>
       </c>
       <c r="X28" t="n">
-        <v>630.1927733443147</v>
+        <v>630.1927733443152</v>
       </c>
       <c r="Y28" t="n">
-        <v>512.1025046495852</v>
+        <v>512.1025046495857</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1801.557898288066</v>
+        <v>1801.557898288067</v>
       </c>
       <c r="C29" t="n">
-        <v>1523.569029733867</v>
+        <v>1523.569029733868</v>
       </c>
       <c r="D29" t="n">
         <v>1254.689955074085</v>
       </c>
       <c r="E29" t="n">
-        <v>963.8491252931849</v>
+        <v>963.8491252931854</v>
       </c>
       <c r="F29" t="n">
-        <v>653.642824716349</v>
+        <v>653.6428247163494</v>
       </c>
       <c r="G29" t="n">
-        <v>342.0077192960804</v>
+        <v>342.0077192960808</v>
       </c>
       <c r="H29" t="n">
-        <v>118.4976579636605</v>
+        <v>118.4976579636606</v>
       </c>
       <c r="I29" t="n">
-        <v>69.82651279677965</v>
+        <v>69.82651279677968</v>
       </c>
       <c r="J29" t="n">
         <v>287.2895117349284</v>
@@ -6473,40 +6473,40 @@
         <v>1810.732257624866</v>
       </c>
       <c r="N29" t="n">
-        <v>2296.960939439839</v>
+        <v>2382.576438634834</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.37159827294</v>
+        <v>2875.987097467934</v>
       </c>
       <c r="P29" t="n">
-        <v>3194.255967926568</v>
+        <v>3194.25596792657</v>
       </c>
       <c r="Q29" t="n">
-        <v>3446.023698693662</v>
+        <v>3446.023698693664</v>
       </c>
       <c r="R29" t="n">
-        <v>3491.325639838983</v>
+        <v>3491.325639838984</v>
       </c>
       <c r="S29" t="n">
-        <v>3419.981999780811</v>
+        <v>3419.981999780812</v>
       </c>
       <c r="T29" t="n">
         <v>3301.861714282253</v>
       </c>
       <c r="U29" t="n">
-        <v>3150.963187390244</v>
+        <v>3150.963187390245</v>
       </c>
       <c r="V29" t="n">
-        <v>2917.928803399179</v>
+        <v>2917.92880339918</v>
       </c>
       <c r="W29" t="n">
         <v>2659.338763369774</v>
       </c>
       <c r="X29" t="n">
-        <v>2381.253513004261</v>
+        <v>2381.253513004262</v>
       </c>
       <c r="Y29" t="n">
-        <v>2091.656547693092</v>
+        <v>2091.656547693093</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>128.5560556508836</v>
       </c>
       <c r="I30" t="n">
-        <v>69.82651279677965</v>
+        <v>69.82651279677968</v>
       </c>
       <c r="J30" t="n">
         <v>156.0414139424773</v>
       </c>
       <c r="K30" t="n">
-        <v>429.9030311037421</v>
+        <v>429.9030311037422</v>
       </c>
       <c r="L30" t="n">
-        <v>855.3872483594779</v>
+        <v>855.387248359478</v>
       </c>
       <c r="M30" t="n">
         <v>1410.043776001333</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.4920260781993</v>
+        <v>432.4920260782</v>
       </c>
       <c r="C31" t="n">
-        <v>366.8209466528731</v>
+        <v>366.8209466528737</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6939435936293</v>
+        <v>317.69394359363</v>
       </c>
       <c r="E31" t="n">
-        <v>269.6298194679417</v>
+        <v>269.6298194679423</v>
       </c>
       <c r="F31" t="n">
-        <v>221.0940546067123</v>
+        <v>221.0940546067129</v>
       </c>
       <c r="G31" t="n">
-        <v>156.3542404167508</v>
+        <v>156.3542404167515</v>
       </c>
       <c r="H31" t="n">
         <v>103.0162430722246</v>
       </c>
       <c r="I31" t="n">
-        <v>69.82651279677965</v>
+        <v>69.82651279677968</v>
       </c>
       <c r="J31" t="n">
-        <v>129.1277432145688</v>
+        <v>129.127743214569</v>
       </c>
       <c r="K31" t="n">
-        <v>291.372768515528</v>
+        <v>291.3727685155286</v>
       </c>
       <c r="L31" t="n">
-        <v>528.105517006062</v>
+        <v>528.1055170060625</v>
       </c>
       <c r="M31" t="n">
-        <v>784.0864760050489</v>
+        <v>784.0864760050491</v>
       </c>
       <c r="N31" t="n">
         <v>1039.637630187052</v>
@@ -6640,7 +6640,7 @@
         <v>1465.245689975048</v>
       </c>
       <c r="Q31" t="n">
-        <v>1548.641718968752</v>
+        <v>1548.641718968753</v>
       </c>
       <c r="R31" t="n">
         <v>1513.633275443384</v>
@@ -6649,7 +6649,7 @@
         <v>1407.964584587946</v>
       </c>
       <c r="T31" t="n">
-        <v>1279.73480183227</v>
+        <v>1279.734801832269</v>
       </c>
       <c r="U31" t="n">
         <v>1096.502273034137</v>
@@ -6664,7 +6664,7 @@
         <v>630.192773344315</v>
       </c>
       <c r="Y31" t="n">
-        <v>512.1025046495856</v>
+        <v>512.1025046495863</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1778.754832093045</v>
+        <v>1778.754832093046</v>
       </c>
       <c r="C32" t="n">
-        <v>1503.887053604645</v>
+        <v>1503.887053604646</v>
       </c>
       <c r="D32" t="n">
-        <v>1238.129069010661</v>
+        <v>1238.129069010662</v>
       </c>
       <c r="E32" t="n">
-        <v>950.4093292955608</v>
+        <v>950.4093292955617</v>
       </c>
       <c r="F32" t="n">
-        <v>643.3241187845238</v>
+        <v>643.3241187845251</v>
       </c>
       <c r="G32" t="n">
-        <v>334.8101034300543</v>
+        <v>334.8101034300544</v>
       </c>
       <c r="H32" t="n">
-        <v>114.4211321634329</v>
+        <v>114.421132163433</v>
       </c>
       <c r="I32" t="n">
-        <v>68.87107706235135</v>
+        <v>68.87107706235138</v>
       </c>
       <c r="J32" t="n">
         <v>289.39305637399</v>
       </c>
       <c r="K32" t="n">
-        <v>644.768703911418</v>
+        <v>699.7960102815739</v>
       </c>
       <c r="L32" t="n">
-        <v>1073.698263446243</v>
+        <v>1233.660936989634</v>
       </c>
       <c r="M32" t="n">
-        <v>1662.050069841006</v>
+        <v>1717.077376211163</v>
       </c>
       <c r="N32" t="n">
-        <v>2236.953231224464</v>
+        <v>2236.953231224466</v>
       </c>
       <c r="O32" t="n">
-        <v>2733.422870431054</v>
+        <v>2733.422870431056</v>
       </c>
       <c r="P32" t="n">
-        <v>3140.366220458172</v>
+        <v>3140.366220458174</v>
       </c>
       <c r="Q32" t="n">
-        <v>3395.192931598757</v>
+        <v>3395.192931598759</v>
       </c>
       <c r="R32" t="n">
-        <v>3443.553853117567</v>
+        <v>3443.553853117568</v>
       </c>
       <c r="S32" t="n">
-        <v>3375.331303125195</v>
+        <v>3375.331303125196</v>
       </c>
       <c r="T32" t="n">
-        <v>3260.332107692436</v>
+        <v>3260.332107692437</v>
       </c>
       <c r="U32" t="n">
-        <v>3112.554670866226</v>
+        <v>3112.554670866228</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.64137694096</v>
+        <v>2882.641376940962</v>
       </c>
       <c r="W32" t="n">
-        <v>2627.172426977354</v>
+        <v>2627.172426977356</v>
       </c>
       <c r="X32" t="n">
-        <v>2352.20826667764</v>
+        <v>2352.208266677642</v>
       </c>
       <c r="Y32" t="n">
-        <v>2065.732391432271</v>
+        <v>2065.732391432272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>935.5430487177731</v>
+        <v>935.5430487177733</v>
       </c>
       <c r="C33" t="n">
-        <v>773.8393759587278</v>
+        <v>773.8393759587281</v>
       </c>
       <c r="D33" t="n">
-        <v>635.0007389489399</v>
+        <v>635.0007389489401</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9727290058112</v>
+        <v>487.9727290058113</v>
       </c>
       <c r="F33" t="n">
         <v>353.2789309556856</v>
       </c>
       <c r="G33" t="n">
-        <v>224.8307908872415</v>
+        <v>224.8307908872416</v>
       </c>
       <c r="H33" t="n">
-        <v>127.6006199164553</v>
+        <v>127.6006199164554</v>
       </c>
       <c r="I33" t="n">
-        <v>68.87107706235135</v>
+        <v>68.87107706235138</v>
       </c>
       <c r="J33" t="n">
         <v>155.085978208049</v>
       </c>
       <c r="K33" t="n">
-        <v>428.9475953693138</v>
+        <v>428.9475953693139</v>
       </c>
       <c r="L33" t="n">
         <v>854.4318126250496</v>
@@ -6792,16 +6792,16 @@
         <v>1546.121566595314</v>
       </c>
       <c r="O33" t="n">
-        <v>2003.698846912413</v>
+        <v>2003.698846912414</v>
       </c>
       <c r="P33" t="n">
-        <v>2358.265836905487</v>
+        <v>2358.265836905488</v>
       </c>
       <c r="Q33" t="n">
         <v>2551.112987894594</v>
       </c>
       <c r="R33" t="n">
-        <v>2508.735626276775</v>
+        <v>2508.735626276776</v>
       </c>
       <c r="S33" t="n">
         <v>2361.143701620785</v>
@@ -6810,13 +6810,13 @@
         <v>2173.588644960899</v>
       </c>
       <c r="U33" t="n">
-        <v>1955.112297290016</v>
+        <v>1955.112297290017</v>
       </c>
       <c r="V33" t="n">
-        <v>1726.71667473835</v>
+        <v>1726.716674738351</v>
       </c>
       <c r="W33" t="n">
-        <v>1485.40080597166</v>
+        <v>1485.400805971661</v>
       </c>
       <c r="X33" t="n">
         <v>1287.483817849455</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>409.6889598831757</v>
+        <v>409.6889598831763</v>
       </c>
       <c r="C34" t="n">
-        <v>347.1389705236488</v>
+        <v>347.1389705236493</v>
       </c>
       <c r="D34" t="n">
-        <v>301.1330575302043</v>
+        <v>301.1330575302047</v>
       </c>
       <c r="E34" t="n">
-        <v>256.190023470316</v>
+        <v>256.1900234703163</v>
       </c>
       <c r="F34" t="n">
-        <v>210.7753486748859</v>
+        <v>210.7753486748861</v>
       </c>
       <c r="G34" t="n">
-        <v>149.1566245507237</v>
+        <v>149.1566245507239</v>
       </c>
       <c r="H34" t="n">
-        <v>98.939717271997</v>
+        <v>98.9397172719971</v>
       </c>
       <c r="I34" t="n">
-        <v>68.87107706235135</v>
+        <v>68.87107706235138</v>
       </c>
       <c r="J34" t="n">
-        <v>131.2312878536306</v>
+        <v>131.2312878536305</v>
       </c>
       <c r="K34" t="n">
         <v>296.53529352808</v>
@@ -6865,43 +6865,43 @@
         <v>536.3270223921038</v>
       </c>
       <c r="M34" t="n">
-        <v>720.9576777238721</v>
+        <v>720.9576777238739</v>
       </c>
       <c r="N34" t="n">
-        <v>979.5678122793649</v>
+        <v>979.5678122793666</v>
       </c>
       <c r="O34" t="n">
-        <v>1215.528146790478</v>
+        <v>1215.52814679048</v>
       </c>
       <c r="P34" t="n">
-        <v>1411.293832814341</v>
+        <v>1411.293832814343</v>
       </c>
       <c r="Q34" t="n">
-        <v>1497.748842181535</v>
+        <v>1497.748842181537</v>
       </c>
       <c r="R34" t="n">
-        <v>1465.861488721966</v>
+        <v>1465.861488721967</v>
       </c>
       <c r="S34" t="n">
-        <v>1363.313887932327</v>
+        <v>1363.313887932328</v>
       </c>
       <c r="T34" t="n">
-        <v>1238.20519524245</v>
+        <v>1238.205195242451</v>
       </c>
       <c r="U34" t="n">
-        <v>1058.093756510117</v>
+        <v>1058.093756510118</v>
       </c>
       <c r="V34" t="n">
-        <v>904.4244322473323</v>
+        <v>904.4244322473334</v>
       </c>
       <c r="W34" t="n">
-        <v>725.3340109435243</v>
+        <v>725.3340109435252</v>
       </c>
       <c r="X34" t="n">
-        <v>601.1475270176928</v>
+        <v>601.1475270176936</v>
       </c>
       <c r="Y34" t="n">
-        <v>486.1783483887627</v>
+        <v>486.1783483887634</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1199.792591056316</v>
       </c>
       <c r="D35" t="n">
-        <v>982.7725443380625</v>
+        <v>982.7725443380623</v>
       </c>
       <c r="E35" t="n">
-        <v>743.790742498692</v>
+        <v>743.7907424986913</v>
       </c>
       <c r="F35" t="n">
-        <v>485.443469863385</v>
+        <v>485.4434698633843</v>
       </c>
       <c r="G35" t="n">
-        <v>225.667392384645</v>
+        <v>225.6673923846451</v>
       </c>
       <c r="H35" t="n">
         <v>54.01635899375341</v>
@@ -6938,10 +6938,10 @@
         <v>169.6029711321571</v>
       </c>
       <c r="K35" t="n">
-        <v>475.0705578665061</v>
+        <v>475.0705578665063</v>
       </c>
       <c r="L35" t="n">
-        <v>904.000117401331</v>
+        <v>904.0001174013312</v>
       </c>
       <c r="M35" t="n">
         <v>1387.41655662286</v>
@@ -6965,7 +6965,7 @@
         <v>2681.333337571028</v>
       </c>
       <c r="T35" t="n">
-        <v>2615.072080013999</v>
+        <v>2615.072080013998</v>
       </c>
       <c r="U35" t="n">
         <v>2516.03258106352</v>
@@ -7014,25 +7014,25 @@
         <v>54.01635899375341</v>
       </c>
       <c r="J36" t="n">
-        <v>140.2312601394511</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="K36" t="n">
-        <v>414.0928773007159</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="L36" t="n">
-        <v>839.5770945564516</v>
+        <v>479.5005762494892</v>
       </c>
       <c r="M36" t="n">
-        <v>1394.233622198307</v>
+        <v>1034.157103891344</v>
       </c>
       <c r="N36" t="n">
-        <v>1531.266848526716</v>
+        <v>1616.888642395139</v>
       </c>
       <c r="O36" t="n">
-        <v>1988.844128843815</v>
+        <v>2074.465922712239</v>
       </c>
       <c r="P36" t="n">
-        <v>2343.411118836889</v>
+        <v>2429.032912705313</v>
       </c>
       <c r="Q36" t="n">
         <v>2536.258269825996</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>112.6069591228108</v>
+        <v>82.18816612898014</v>
       </c>
       <c r="C37" t="n">
-        <v>98.79490763901364</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="D37" t="n">
-        <v>98.79490763901364</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="E37" t="n">
-        <v>68.37611464518275</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="F37" t="n">
-        <v>68.37611464518275</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="G37" t="n">
-        <v>55.49532839675036</v>
+        <v>55.49532839675044</v>
       </c>
       <c r="H37" t="n">
         <v>54.01635899375341</v>
@@ -7120,25 +7120,25 @@
         <v>778.875984955763</v>
       </c>
       <c r="S37" t="n">
-        <v>725.0663220418536</v>
+        <v>694.6475290480236</v>
       </c>
       <c r="T37" t="n">
-        <v>648.6955672277064</v>
+        <v>618.2767742338764</v>
       </c>
       <c r="U37" t="n">
-        <v>517.3220663711031</v>
+        <v>486.903273377273</v>
       </c>
       <c r="V37" t="n">
-        <v>412.3906799840483</v>
+        <v>381.9718869902181</v>
       </c>
       <c r="W37" t="n">
-        <v>282.03819655597</v>
+        <v>251.6194035621397</v>
       </c>
       <c r="X37" t="n">
-        <v>206.5896505058683</v>
+        <v>176.1708575120379</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.358409752668</v>
+        <v>109.9396167588375</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1425.922431668987</v>
+        <v>1425.922431668986</v>
       </c>
       <c r="C38" t="n">
-        <v>1199.792591056317</v>
+        <v>1199.792591056316</v>
       </c>
       <c r="D38" t="n">
-        <v>982.7725443380632</v>
+        <v>982.7725443380621</v>
       </c>
       <c r="E38" t="n">
-        <v>743.7907424986926</v>
+        <v>743.7907424986914</v>
       </c>
       <c r="F38" t="n">
-        <v>485.4434698633854</v>
+        <v>485.4434698633843</v>
       </c>
       <c r="G38" t="n">
         <v>225.6673923846451</v>
@@ -7202,22 +7202,22 @@
         <v>2681.333337571028</v>
       </c>
       <c r="T38" t="n">
-        <v>2615.072080014</v>
+        <v>2615.072080013998</v>
       </c>
       <c r="U38" t="n">
         <v>2516.03258106352</v>
       </c>
       <c r="V38" t="n">
-        <v>2334.857225013984</v>
+        <v>2334.857225013983</v>
       </c>
       <c r="W38" t="n">
-        <v>2128.126212926108</v>
+        <v>2128.126212926107</v>
       </c>
       <c r="X38" t="n">
-        <v>1901.899990502124</v>
+        <v>1901.899990502122</v>
       </c>
       <c r="Y38" t="n">
-        <v>1664.162053132484</v>
+        <v>1664.162053132483</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>54.01635899375341</v>
       </c>
       <c r="J39" t="n">
-        <v>140.2312601394511</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="K39" t="n">
-        <v>414.0928773007159</v>
+        <v>327.8779761550182</v>
       </c>
       <c r="L39" t="n">
-        <v>839.5770945564516</v>
+        <v>753.362193410754</v>
       </c>
       <c r="M39" t="n">
-        <v>1394.233622198307</v>
+        <v>1308.018721052609</v>
       </c>
       <c r="N39" t="n">
-        <v>1531.266848526716</v>
+        <v>1890.750259556404</v>
       </c>
       <c r="O39" t="n">
-        <v>1988.844128843815</v>
+        <v>2181.691279832922</v>
       </c>
       <c r="P39" t="n">
-        <v>2343.411118836889</v>
+        <v>2536.258269825996</v>
       </c>
       <c r="Q39" t="n">
         <v>2536.258269825996</v>
@@ -7391,25 +7391,25 @@
         <v>1199.792591056316</v>
       </c>
       <c r="D41" t="n">
-        <v>982.7725443380623</v>
+        <v>982.7725443380626</v>
       </c>
       <c r="E41" t="n">
-        <v>743.7907424986917</v>
+        <v>743.7907424986921</v>
       </c>
       <c r="F41" t="n">
-        <v>485.4434698633845</v>
+        <v>485.4434698633851</v>
       </c>
       <c r="G41" t="n">
-        <v>225.6673923846451</v>
+        <v>225.667392384645</v>
       </c>
       <c r="H41" t="n">
         <v>54.01635899375341</v>
       </c>
       <c r="I41" t="n">
-        <v>54.01635899375324</v>
+        <v>54.01635899375317</v>
       </c>
       <c r="J41" t="n">
-        <v>169.6029711321571</v>
+        <v>169.602971132157</v>
       </c>
       <c r="K41" t="n">
         <v>475.0705578665061</v>
@@ -7442,7 +7442,7 @@
         <v>2615.072080013998</v>
       </c>
       <c r="U41" t="n">
-        <v>2516.03258106352</v>
+        <v>2516.032581063519</v>
       </c>
       <c r="V41" t="n">
         <v>2334.857225013983</v>
@@ -7494,7 +7494,7 @@
         <v>414.0928773007159</v>
       </c>
       <c r="L42" t="n">
-        <v>839.5770945564516</v>
+        <v>839.5770945564517</v>
       </c>
       <c r="M42" t="n">
         <v>1394.233622198307</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.18816612898004</v>
+        <v>112.6069591228111</v>
       </c>
       <c r="C43" t="n">
-        <v>68.37611464518287</v>
+        <v>98.79490763901404</v>
       </c>
       <c r="D43" t="n">
-        <v>68.37611464518287</v>
+        <v>98.79490763901404</v>
       </c>
       <c r="E43" t="n">
-        <v>68.37611464518287</v>
+        <v>98.79490763901404</v>
       </c>
       <c r="F43" t="n">
-        <v>68.37611464518287</v>
+        <v>98.79490763901404</v>
       </c>
       <c r="G43" t="n">
-        <v>55.49532839675042</v>
+        <v>85.91412139058168</v>
       </c>
       <c r="H43" t="n">
         <v>54.01635899375341</v>
@@ -7594,25 +7594,25 @@
         <v>778.875984955763</v>
       </c>
       <c r="S43" t="n">
-        <v>725.0663220418536</v>
+        <v>725.0663220418537</v>
       </c>
       <c r="T43" t="n">
-        <v>618.276774233876</v>
+        <v>648.6955672277066</v>
       </c>
       <c r="U43" t="n">
-        <v>486.9032733772727</v>
+        <v>517.3220663711033</v>
       </c>
       <c r="V43" t="n">
-        <v>381.9718869902178</v>
+        <v>412.3906799840486</v>
       </c>
       <c r="W43" t="n">
-        <v>251.6194035621394</v>
+        <v>282.0381965559703</v>
       </c>
       <c r="X43" t="n">
-        <v>176.1708575120377</v>
+        <v>206.5896505058687</v>
       </c>
       <c r="Y43" t="n">
-        <v>109.9396167588373</v>
+        <v>140.3584097526684</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1425.922431668985</v>
+        <v>1425.922431668986</v>
       </c>
       <c r="C44" t="n">
-        <v>1199.792591056315</v>
+        <v>1199.792591056316</v>
       </c>
       <c r="D44" t="n">
-        <v>982.7725443380614</v>
+        <v>982.7725443380625</v>
       </c>
       <c r="E44" t="n">
-        <v>743.7907424986911</v>
+        <v>743.7907424986918</v>
       </c>
       <c r="F44" t="n">
-        <v>485.4434698633845</v>
+        <v>485.4434698633849</v>
       </c>
       <c r="G44" t="n">
         <v>225.6673923846451</v>
@@ -7646,13 +7646,13 @@
         <v>54.01635899375341</v>
       </c>
       <c r="J44" t="n">
-        <v>169.6029711321571</v>
+        <v>169.6029711321572</v>
       </c>
       <c r="K44" t="n">
-        <v>475.0705578665061</v>
+        <v>475.0705578665064</v>
       </c>
       <c r="L44" t="n">
-        <v>904.000117401331</v>
+        <v>904.0001174013312</v>
       </c>
       <c r="M44" t="n">
         <v>1387.41655662286</v>
@@ -7676,22 +7676,22 @@
         <v>2681.333337571028</v>
       </c>
       <c r="T44" t="n">
-        <v>2615.072080013998</v>
+        <v>2615.072080013999</v>
       </c>
       <c r="U44" t="n">
-        <v>2516.032581063519</v>
+        <v>2516.03258106352</v>
       </c>
       <c r="V44" t="n">
-        <v>2334.857225013982</v>
+        <v>2334.857225013983</v>
       </c>
       <c r="W44" t="n">
-        <v>2128.126212926106</v>
+        <v>2128.126212926107</v>
       </c>
       <c r="X44" t="n">
-        <v>1901.899990502122</v>
+        <v>1901.899990502123</v>
       </c>
       <c r="Y44" t="n">
-        <v>1664.162053132482</v>
+        <v>1664.162053132483</v>
       </c>
     </row>
     <row r="45">
@@ -7731,7 +7731,7 @@
         <v>414.0928773007159</v>
       </c>
       <c r="L45" t="n">
-        <v>839.5770945564516</v>
+        <v>839.5770945564517</v>
       </c>
       <c r="M45" t="n">
         <v>1394.233622198307</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.6069591228105</v>
+        <v>82.18816612897996</v>
       </c>
       <c r="C46" t="n">
-        <v>98.7949076390133</v>
+        <v>68.37611464518281</v>
       </c>
       <c r="D46" t="n">
-        <v>98.7949076390133</v>
+        <v>68.37611464518281</v>
       </c>
       <c r="E46" t="n">
-        <v>98.7949076390133</v>
+        <v>68.37611464518281</v>
       </c>
       <c r="F46" t="n">
-        <v>98.7949076390133</v>
+        <v>68.37611464518281</v>
       </c>
       <c r="G46" t="n">
-        <v>85.91412139058085</v>
+        <v>55.49532839675039</v>
       </c>
       <c r="H46" t="n">
-        <v>84.43515198758384</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="I46" t="n">
-        <v>84.43515198758384</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J46" t="n">
         <v>54.01635899375341</v>
@@ -7834,22 +7834,22 @@
         <v>725.0663220418536</v>
       </c>
       <c r="T46" t="n">
-        <v>648.6955672277064</v>
+        <v>618.2767742338758</v>
       </c>
       <c r="U46" t="n">
-        <v>517.3220663711031</v>
+        <v>486.9032733772725</v>
       </c>
       <c r="V46" t="n">
-        <v>412.3906799840482</v>
+        <v>381.9718869902176</v>
       </c>
       <c r="W46" t="n">
-        <v>282.0381965559699</v>
+        <v>251.6194035621393</v>
       </c>
       <c r="X46" t="n">
-        <v>206.5896505058682</v>
+        <v>176.1708575120376</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.3584097526678</v>
+        <v>109.9396167588372</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>159.0427441082865</v>
       </c>
       <c r="K8" t="n">
-        <v>190.7659506544006</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
         <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>199.099261177513</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>198.341060852584</v>
       </c>
       <c r="O8" t="n">
-        <v>198.415200160258</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>199.8197557315104</v>
+        <v>199.3372124312941</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.5663197033441</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8532,19 +8532,19 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>123.9391158470206</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>124.5183802515017</v>
+        <v>124.0358369512853</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616399</v>
+        <v>127.4268492419938</v>
       </c>
       <c r="N9" t="n">
         <v>118.6580877480622</v>
       </c>
       <c r="O9" t="n">
-        <v>127.3198519912487</v>
+        <v>127.802395291465</v>
       </c>
       <c r="P9" t="n">
         <v>108.8542060241433</v>
@@ -8617,7 +8617,7 @@
         <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
-        <v>124.3376028375667</v>
+        <v>124.820146137783</v>
       </c>
       <c r="N10" t="n">
         <v>115.6874515583558</v>
@@ -8626,7 +8626,7 @@
         <v>124.4388841724762</v>
       </c>
       <c r="P10" t="n">
-        <v>123.8469499702863</v>
+        <v>123.36440667007</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>103.0714460485405</v>
       </c>
       <c r="K11" t="n">
-        <v>421.3890363425141</v>
+        <v>371.9212911674936</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>418.145694690506</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8769,7 +8769,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>67.17691199386249</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8784,10 +8784,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>158.5963859124451</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.52805485042096</v>
+        <v>78.30537204740509</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>172.9447713179476</v>
+        <v>172.9447713179473</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236957</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9170,7 +9170,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>584.3675935406823</v>
+        <v>584.367593540682</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>172.9447713179474</v>
+        <v>172.9447713179473</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9483,13 +9483,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>226.6872355750232</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>172.9447713179476</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>78.30537204740509</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236957</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9644,7 +9644,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>584.3675935406822</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N23" t="n">
         <v>568.5510017355793</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>76.83258720950354</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>172.9447713179476</v>
+        <v>454.8256320601737</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>78.30537204740509</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>172.9447713179478</v>
+        <v>172.9447713179476</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>172.9447713179478</v>
+        <v>172.9447713179476</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>172.9447713179474</v>
+        <v>172.9447713179478</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>76.83258720950354</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>67.17691199386246</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>172.9447713179476</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>186.6138135834489</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>76.83258720950354</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10911,16 +10911,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>172.9447713179476</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>343.7015604733026</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>78.30537204740509</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>172.9447713179476</v>
+        <v>172.9447713179473</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236957</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11303,7 +11303,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406823</v>
+        <v>584.367593540682</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>172.9447713179476</v>
+        <v>172.9447713179473</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23261,19 +23261,19 @@
         <v>293.1447203119561</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>77.30820779213691</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>305.8681619263897</v>
       </c>
       <c r="F11" t="n">
-        <v>325.0399780143668</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>239.2107011623955</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>92.86557061417534</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>248.6397805944535</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>273.9398800724105</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.21144518694561</v>
+        <v>96.75011422897148</v>
       </c>
       <c r="C13" t="n">
-        <v>82.95010907437192</v>
+        <v>82.95010907437197</v>
       </c>
       <c r="D13" t="n">
-        <v>66.57147347195031</v>
+        <v>66.57147347195036</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.5192233277298</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98614765591607</v>
+        <v>65.98614765591611</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>49.82533300166358</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>144.8832253714184</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>40.75084958013137</v>
+        <v>284.1260243564841</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>239.2107011623955</v>
+        <v>140.7150385100516</v>
       </c>
       <c r="I14" t="n">
-        <v>66.12017415851105</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.56594410088918</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>167.3252820663874</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>248.6397805944535</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>82.95010907437191</v>
       </c>
       <c r="D16" t="n">
         <v>66.5714734719503</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.51922332772975</v>
       </c>
       <c r="F16" t="n">
         <v>65.98614765591606</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>82.02815649136082</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>64.54729073927257</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>96.71964293352539</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>198.3251366992103</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>57440.74736304782</v>
       </c>
       <c r="C2" t="n">
-        <v>57440.74736304783</v>
+        <v>57440.74736304781</v>
       </c>
       <c r="D2" t="n">
         <v>57571.80453706363</v>
@@ -26323,13 +26323,13 @@
         <v>49644.68273403138</v>
       </c>
       <c r="F2" t="n">
-        <v>50617.27980991781</v>
+        <v>50617.2798099178</v>
       </c>
       <c r="G2" t="n">
+        <v>57571.80453706367</v>
+      </c>
+      <c r="H2" t="n">
         <v>57571.80453706364</v>
-      </c>
-      <c r="H2" t="n">
-        <v>57571.80453706368</v>
       </c>
       <c r="I2" t="n">
         <v>57571.80453706365</v>
@@ -26338,10 +26338,10 @@
         <v>57571.80453706371</v>
       </c>
       <c r="K2" t="n">
-        <v>57571.80453706371</v>
+        <v>57571.80453706372</v>
       </c>
       <c r="L2" t="n">
-        <v>57571.80453706367</v>
+        <v>57571.80453706365</v>
       </c>
       <c r="M2" t="n">
         <v>57571.80453706365</v>
@@ -26350,7 +26350,7 @@
         <v>57571.80453706366</v>
       </c>
       <c r="O2" t="n">
-        <v>57571.80453706368</v>
+        <v>57571.80453706366</v>
       </c>
       <c r="P2" t="n">
         <v>57571.80453706365</v>
@@ -26375,7 +26375,7 @@
         <v>357147.4969845472</v>
       </c>
       <c r="F3" t="n">
-        <v>12028.22113062402</v>
+        <v>12028.22113062403</v>
       </c>
       <c r="G3" t="n">
         <v>55420.94248433014</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>78611.30900564826</v>
+        <v>78611.30900564828</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57892.84581644317</v>
+        <v>57892.84581644311</v>
       </c>
       <c r="M3" t="n">
-        <v>147153.2244248484</v>
+        <v>147153.2244248483</v>
       </c>
       <c r="N3" t="n">
-        <v>10281.91548711226</v>
+        <v>10281.9154871123</v>
       </c>
       <c r="O3" t="n">
         <v>26903.41048516075</v>
@@ -26424,7 +26424,7 @@
         <v>387212.3726853604</v>
       </c>
       <c r="E4" t="n">
-        <v>219407.5105365947</v>
+        <v>219407.5105365946</v>
       </c>
       <c r="F4" t="n">
         <v>223396.7363758596</v>
@@ -26439,22 +26439,22 @@
         <v>276131.512787101</v>
       </c>
       <c r="J4" t="n">
-        <v>277167.4584747851</v>
+        <v>277167.4584747852</v>
       </c>
       <c r="K4" t="n">
-        <v>277167.4584747851</v>
+        <v>277167.4584747852</v>
       </c>
       <c r="L4" t="n">
         <v>277103.4908137628</v>
       </c>
       <c r="M4" t="n">
-        <v>276131.5127871011</v>
+        <v>276131.512787101</v>
       </c>
       <c r="N4" t="n">
         <v>276131.512787101</v>
       </c>
       <c r="O4" t="n">
-        <v>276131.512787101</v>
+        <v>276131.5127871011</v>
       </c>
       <c r="P4" t="n">
         <v>276131.512787101</v>
@@ -26476,7 +26476,7 @@
         <v>34353.73115816552</v>
       </c>
       <c r="E5" t="n">
-        <v>48456.4539315742</v>
+        <v>48456.45393157421</v>
       </c>
       <c r="F5" t="n">
         <v>51008.80814983691</v>
@@ -26491,13 +26491,13 @@
         <v>56832.78716698085</v>
       </c>
       <c r="J5" t="n">
+        <v>64532.36480346459</v>
+      </c>
+      <c r="K5" t="n">
         <v>64532.36480346457</v>
       </c>
-      <c r="K5" t="n">
-        <v>64532.36480346455</v>
-      </c>
       <c r="L5" t="n">
-        <v>64065.9966968333</v>
+        <v>64065.99669683332</v>
       </c>
       <c r="M5" t="n">
         <v>56832.78716698085</v>
@@ -26506,7 +26506,7 @@
         <v>56832.78716698085</v>
       </c>
       <c r="O5" t="n">
-        <v>56832.78716698085</v>
+        <v>56832.78716698086</v>
       </c>
       <c r="P5" t="n">
         <v>56832.78716698085</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-364182.5120194849</v>
+        <v>-364186.8805919521</v>
       </c>
       <c r="C6" t="n">
-        <v>-364182.5120194848</v>
+        <v>-364186.8805919521</v>
       </c>
       <c r="D6" t="n">
         <v>-367704.1368337806</v>
       </c>
       <c r="E6" t="n">
-        <v>-575366.7787186847</v>
+        <v>-575631.0161121191</v>
       </c>
       <c r="F6" t="n">
-        <v>-235816.4858464027</v>
+        <v>-236048.3033373076</v>
       </c>
       <c r="G6" t="n">
         <v>-330813.4379013483</v>
       </c>
       <c r="H6" t="n">
-        <v>-275392.4954170181</v>
+        <v>-275392.4954170182</v>
       </c>
       <c r="I6" t="n">
         <v>-275392.4954170182</v>
       </c>
       <c r="J6" t="n">
-        <v>-362739.3277468342</v>
+        <v>-362739.3277468344</v>
       </c>
       <c r="K6" t="n">
-        <v>-284128.018741186</v>
+        <v>-284128.0187411861</v>
       </c>
       <c r="L6" t="n">
         <v>-341490.5287899756</v>
       </c>
       <c r="M6" t="n">
-        <v>-422545.7198418667</v>
+        <v>-422545.7198418665</v>
       </c>
       <c r="N6" t="n">
         <v>-285674.4109041304</v>
       </c>
       <c r="O6" t="n">
-        <v>-302295.9059021789</v>
+        <v>-302295.905902179</v>
       </c>
       <c r="P6" t="n">
         <v>-275392.4954170182</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="F2" t="n">
         <v>84.96970076856459</v>
@@ -26707,13 +26707,13 @@
         <v>154.2458788739773</v>
       </c>
       <c r="J2" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="K2" t="n">
         <v>102.9054412118636</v>
       </c>
       <c r="L2" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="M2" t="n">
         <v>154.2458788739773</v>
@@ -26722,7 +26722,7 @@
         <v>154.2458788739773</v>
       </c>
       <c r="O2" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="P2" t="n">
         <v>154.2458788739773</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="F3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="G3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="H3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="I3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="J3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="K3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="L3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="M3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="N3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="O3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="P3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="E4" t="n">
-        <v>633.2249772531231</v>
+        <v>633.2249772531233</v>
       </c>
       <c r="F4" t="n">
         <v>675.2044874219176</v>
@@ -26811,13 +26811,13 @@
         <v>675.2044874219176</v>
       </c>
       <c r="J4" t="n">
-        <v>872.8314099597459</v>
+        <v>872.8314099597462</v>
       </c>
       <c r="K4" t="n">
-        <v>872.8314099597457</v>
+        <v>872.831409959746</v>
       </c>
       <c r="L4" t="n">
-        <v>860.8884632793918</v>
+        <v>860.8884632793921</v>
       </c>
       <c r="M4" t="n">
         <v>675.2044874219176</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G2" t="n">
         <v>69.27617810541267</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>33.62926310645091</v>
+        <v>33.62926310645082</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>72.36605727055397</v>
+        <v>72.3660572705539</v>
       </c>
       <c r="M2" t="n">
         <v>48.25055849697247</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.039336728067</v>
+        <v>129.0393367280671</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="E4" t="n">
-        <v>621.2820305727693</v>
+        <v>621.2820305727694</v>
       </c>
       <c r="F4" t="n">
-        <v>41.97951016879449</v>
+        <v>41.97951016879438</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>197.6269225378282</v>
+        <v>197.6269225378286</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>435.5980547152951</v>
+        <v>435.5980547152949</v>
       </c>
       <c r="N4" t="n">
-        <v>41.97951016879449</v>
+        <v>41.97951016879438</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
         <v>69.27617810541267</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.62926310645091</v>
+        <v>33.62926310645082</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="M4" t="n">
-        <v>621.2820305727693</v>
+        <v>621.2820305727694</v>
       </c>
       <c r="N4" t="n">
-        <v>41.97951016879449</v>
+        <v>41.97951016879438</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.7889569587513</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>173.4137389355957</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>251.8268142700215</v>
+        <v>240.393536242792</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>321.6665346826642</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -27919,7 +27919,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>389.096768216796</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>149.5672885953991</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>47.24347953564978</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>139.3285454370332</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>176.2789053596189</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -27992,10 +27992,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>226.9597633986692</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>183.9948715606295</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28017,22 +28017,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>139.9695766602387</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>139.0129017441268</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>155.2876044654746</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>145.835972088165</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>130.8180672729944</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>47.51371951961512</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>27.63262049679216</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="C11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="D11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="E11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="F11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="G11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="H11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="I11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="T11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="U11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="V11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="W11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="X11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="Y11" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="C13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="D13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="E13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="F13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="G13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="H13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="I13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="J13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="K13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="L13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="M13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="N13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="O13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="P13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="R13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="S13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="T13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="U13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="V13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="W13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="X13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.96970076856458</v>
+        <v>84.96970076856454</v>
       </c>
     </row>
     <row r="14">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S14" t="n">
         <v>84.96970076856459</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S17" t="n">
         <v>154.2458788739773</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>124.1312738100855</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="C19" t="n">
         <v>154.2458788739773</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100855</v>
       </c>
       <c r="H19" t="n">
         <v>154.2458788739773</v>
@@ -28743,7 +28743,7 @@
         <v>135.7632741845541</v>
       </c>
       <c r="J19" t="n">
-        <v>43.00520846662184</v>
+        <v>43.00520846662182</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>18.66702808690973</v>
       </c>
       <c r="R19" t="n">
-        <v>137.5638003019784</v>
+        <v>137.5638003019783</v>
       </c>
       <c r="S19" t="n">
         <v>154.2458788739773</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S20" t="n">
         <v>154.2458788739773</v>
@@ -28980,7 +28980,7 @@
         <v>135.7632741845541</v>
       </c>
       <c r="J22" t="n">
-        <v>43.00520846662184</v>
+        <v>43.00520846662182</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,13 +29004,13 @@
         <v>18.66702808690973</v>
       </c>
       <c r="R22" t="n">
-        <v>137.5638003019784</v>
+        <v>137.5638003019783</v>
       </c>
       <c r="S22" t="n">
+        <v>124.1312738100856</v>
+      </c>
+      <c r="T22" t="n">
         <v>154.2458788739773</v>
-      </c>
-      <c r="T22" t="n">
-        <v>124.1312738100856</v>
       </c>
       <c r="U22" t="n">
         <v>154.2458788739773</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S23" t="n">
         <v>154.2458788739773</v>
@@ -29217,7 +29217,7 @@
         <v>135.7632741845541</v>
       </c>
       <c r="J25" t="n">
-        <v>43.00520846662184</v>
+        <v>43.00520846662182</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>18.66702808690973</v>
       </c>
       <c r="R25" t="n">
-        <v>137.5638003019784</v>
+        <v>137.5638003019783</v>
       </c>
       <c r="S25" t="n">
         <v>154.2458788739773</v>
@@ -29250,10 +29250,10 @@
         <v>154.2458788739773</v>
       </c>
       <c r="U25" t="n">
-        <v>124.1312738100854</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="V25" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100855</v>
       </c>
       <c r="W25" t="n">
         <v>154.2458788739773</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="C26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="D26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="E26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="F26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="G26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="H26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="I26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="J26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="K26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="L26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="M26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="N26" t="n">
-        <v>16.42513899469884</v>
+        <v>16.42513899470066</v>
       </c>
       <c r="O26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="P26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="R26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="S26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="T26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="U26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="V26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="W26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="X26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="C28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="D28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="E28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="F28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="G28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="H28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="I28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="J28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="K28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="L28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="M28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="N28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="O28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="P28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="R28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="S28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="T28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="U28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="V28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="W28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="X28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.9054412118636</v>
+        <v>102.9054412118635</v>
       </c>
     </row>
     <row r="29">
@@ -29545,13 +29545,13 @@
         <v>102.9054412118636</v>
       </c>
       <c r="N29" t="n">
-        <v>16.4251389946981</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="O29" t="n">
         <v>102.9054412118636</v>
       </c>
       <c r="P29" t="n">
-        <v>102.9054412118636</v>
+        <v>16.42513899469924</v>
       </c>
       <c r="Q29" t="n">
         <v>102.9054412118636</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="C32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="D32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="E32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="F32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="G32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="H32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="I32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="J32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="K32" t="n">
-        <v>50.41218262937269</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="M32" t="n">
-        <v>105.9953203770049</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>105.9953203770049</v>
+        <v>50.41218262937434</v>
       </c>
       <c r="O32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="P32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="R32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="S32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="T32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="U32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="V32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="W32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="X32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="C34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="D34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="E34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="F34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="G34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="H34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="I34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="J34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="K34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="L34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="M34" t="n">
-        <v>30.83442740659248</v>
+        <v>30.8344274065943</v>
       </c>
       <c r="N34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="O34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="P34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="R34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="S34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="T34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="U34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="V34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="W34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="X34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.9953203770049</v>
+        <v>105.9953203770048</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S35" t="n">
         <v>154.2458788739773</v>
@@ -30150,7 +30150,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>120.3743190324018</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -30165,7 +30165,7 @@
         <v>135.7632741845541</v>
       </c>
       <c r="J37" t="n">
-        <v>43.00520846662184</v>
+        <v>43.00520846662182</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,10 +30189,10 @@
         <v>18.66702808690973</v>
       </c>
       <c r="R37" t="n">
-        <v>137.5638003019784</v>
+        <v>137.5638003019783</v>
       </c>
       <c r="S37" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100856</v>
       </c>
       <c r="T37" t="n">
         <v>154.2458788739773</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S38" t="n">
         <v>154.2458788739773</v>
@@ -30402,7 +30402,7 @@
         <v>135.7632741845541</v>
       </c>
       <c r="J40" t="n">
-        <v>43.00520846662184</v>
+        <v>43.00520846662182</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>18.66702808690973</v>
       </c>
       <c r="R40" t="n">
-        <v>137.5638003019784</v>
+        <v>137.5638003019783</v>
       </c>
       <c r="S40" t="n">
         <v>124.1312738100856</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="C41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="D41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="E41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="F41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="G41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="H41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="I41" t="n">
         <v>151.0898749270756</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="T41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="U41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="V41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="W41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="X41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="Y41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="C43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,16 +30630,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="H43" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100843</v>
       </c>
       <c r="I43" t="n">
         <v>135.7632741845541</v>
       </c>
       <c r="J43" t="n">
-        <v>43.00520846662184</v>
+        <v>43.00520846662182</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>18.66702808690973</v>
       </c>
       <c r="R43" t="n">
-        <v>137.5638003019784</v>
+        <v>137.5638003019783</v>
       </c>
       <c r="S43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="T43" t="n">
-        <v>124.1312738100852</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="U43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="V43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="W43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="X43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="Y43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143908</v>
       </c>
       <c r="S44" t="n">
         <v>154.2458788739773</v>
@@ -30876,7 +30876,7 @@
         <v>135.7632741845541</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89060340272972</v>
+        <v>43.00520846662182</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,13 +30900,13 @@
         <v>18.66702808690973</v>
       </c>
       <c r="R46" t="n">
-        <v>137.5638003019784</v>
+        <v>137.5638003019783</v>
       </c>
       <c r="S46" t="n">
         <v>154.2458788739773</v>
       </c>
       <c r="T46" t="n">
-        <v>154.2458788739773</v>
+        <v>124.131273810085</v>
       </c>
       <c r="U46" t="n">
         <v>154.2458788739773</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H11" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I11" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J11" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K11" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L11" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M11" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N11" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O11" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P11" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R11" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S11" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T11" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H12" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I12" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J12" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K12" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L12" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M12" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N12" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O12" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P12" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R12" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S12" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T12" t="n">
         <v>1.118746702387675</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H13" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I13" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J13" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K13" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L13" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M13" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N13" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O13" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P13" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R13" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S13" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H14" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I14" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J14" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K14" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L14" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M14" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N14" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O14" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P14" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R14" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S14" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T14" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H15" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I15" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J15" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K15" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L15" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M15" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N15" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O15" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P15" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R15" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S15" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T15" t="n">
         <v>1.118746702387675</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H16" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I16" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J16" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K16" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L16" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M16" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N16" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O16" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P16" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R16" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S16" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H17" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I17" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J17" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K17" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L17" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M17" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N17" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O17" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P17" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R17" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S17" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T17" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H18" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I18" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J18" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K18" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L18" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M18" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N18" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O18" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P18" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R18" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S18" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T18" t="n">
         <v>1.118746702387675</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H19" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I19" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J19" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K19" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L19" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M19" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N19" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O19" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P19" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R19" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S19" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H20" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I20" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J20" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K20" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L20" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M20" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N20" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O20" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P20" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R20" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S20" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T20" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H21" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I21" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J21" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K21" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L21" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M21" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N21" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O21" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P21" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R21" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S21" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T21" t="n">
         <v>1.118746702387675</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H22" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I22" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J22" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K22" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L22" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M22" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N22" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O22" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P22" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R22" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S22" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H23" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I23" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J23" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K23" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L23" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M23" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N23" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O23" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P23" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R23" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S23" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T23" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H24" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I24" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J24" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K24" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L24" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M24" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N24" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O24" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P24" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R24" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S24" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T24" t="n">
         <v>1.118746702387675</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H25" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I25" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J25" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K25" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L25" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M25" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N25" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O25" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P25" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R25" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S25" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H26" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I26" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J26" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K26" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L26" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M26" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N26" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O26" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P26" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R26" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S26" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T26" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,43 +33014,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H27" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I27" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J27" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K27" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L27" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M27" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N27" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O27" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P27" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R27" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S27" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T27" t="n">
         <v>1.118746702387675</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H28" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I28" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J28" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K28" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L28" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M28" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N28" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O28" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P28" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R28" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S28" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H29" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I29" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J29" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K29" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L29" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M29" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N29" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O29" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P29" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R29" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S29" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T29" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,43 +33251,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H30" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I30" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J30" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K30" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L30" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M30" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N30" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O30" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P30" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R30" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S30" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T30" t="n">
         <v>1.118746702387675</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H31" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I31" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J31" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K31" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L31" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M31" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N31" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O31" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P31" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R31" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S31" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H32" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I32" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J32" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K32" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L32" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M32" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N32" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O32" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P32" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R32" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S32" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T32" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,43 +33488,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H33" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I33" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J33" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K33" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L33" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M33" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N33" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O33" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P33" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R33" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S33" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T33" t="n">
         <v>1.118746702387675</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H34" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I34" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J34" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K34" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L34" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M34" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N34" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O34" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P34" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R34" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S34" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H35" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I35" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J35" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K35" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L35" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M35" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N35" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O35" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P35" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R35" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S35" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T35" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,43 +33725,43 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H36" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I36" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J36" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K36" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L36" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M36" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N36" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O36" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P36" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R36" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S36" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T36" t="n">
         <v>1.118746702387675</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H37" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I37" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J37" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K37" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L37" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M37" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N37" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O37" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P37" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R37" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S37" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H38" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I38" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J38" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K38" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L38" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M38" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N38" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O38" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P38" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R38" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S38" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T38" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,43 +33962,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H39" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I39" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J39" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K39" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L39" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M39" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N39" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O39" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P39" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R39" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S39" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T39" t="n">
         <v>1.118746702387675</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H40" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I40" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J40" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K40" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L40" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M40" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N40" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O40" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P40" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R40" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S40" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H41" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I41" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J41" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K41" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L41" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M41" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N41" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O41" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P41" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R41" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S41" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T41" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,43 +34199,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H42" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I42" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J42" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K42" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L42" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M42" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N42" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O42" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P42" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R42" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S42" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T42" t="n">
         <v>1.118746702387675</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H43" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I43" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J43" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K43" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L43" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M43" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N43" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O43" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P43" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R43" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S43" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5187511024243896</v>
+        <v>0.5187511024243898</v>
       </c>
       <c r="H44" t="n">
-        <v>5.312659727703782</v>
+        <v>5.312659727703783</v>
       </c>
       <c r="I44" t="n">
-        <v>19.9991518762163</v>
+        <v>19.99915187621631</v>
       </c>
       <c r="J44" t="n">
-        <v>44.02835137939208</v>
+        <v>44.0283513793921</v>
       </c>
       <c r="K44" t="n">
-        <v>65.9870855450165</v>
+        <v>65.98708554501653</v>
       </c>
       <c r="L44" t="n">
-        <v>81.86281459583694</v>
+        <v>81.86281459583697</v>
       </c>
       <c r="M44" t="n">
-        <v>91.08815451357667</v>
+        <v>91.08815451357671</v>
       </c>
       <c r="N44" t="n">
-        <v>92.56205608333997</v>
+        <v>92.56205608334001</v>
       </c>
       <c r="O44" t="n">
-        <v>87.40372480860745</v>
+        <v>87.40372480860748</v>
       </c>
       <c r="P44" t="n">
-        <v>74.59705696750531</v>
+        <v>74.59705696750535</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.01928311193184</v>
+        <v>56.01928311193187</v>
       </c>
       <c r="R44" t="n">
-        <v>32.58599893766609</v>
+        <v>32.5859989376661</v>
       </c>
       <c r="S44" t="n">
         <v>11.82104074649579</v>
       </c>
       <c r="T44" t="n">
-        <v>2.270832950862767</v>
+        <v>2.270832950862768</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04150008819395116</v>
+        <v>0.04150008819395118</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,43 +34436,43 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2775563091886725</v>
+        <v>0.2775563091886726</v>
       </c>
       <c r="H45" t="n">
-        <v>2.6806096176906</v>
+        <v>2.680609617690601</v>
       </c>
       <c r="I45" t="n">
-        <v>9.556215031276663</v>
+        <v>9.556215031276666</v>
       </c>
       <c r="J45" t="n">
-        <v>26.22298445716313</v>
+        <v>26.22298445716314</v>
       </c>
       <c r="K45" t="n">
-        <v>44.81925717280419</v>
+        <v>44.81925717280421</v>
       </c>
       <c r="L45" t="n">
-        <v>60.26502230870715</v>
+        <v>60.26502230870718</v>
       </c>
       <c r="M45" t="n">
-        <v>70.32643851679651</v>
+        <v>70.32643851679654</v>
       </c>
       <c r="N45" t="n">
-        <v>72.18777008148723</v>
+        <v>72.18777008148726</v>
       </c>
       <c r="O45" t="n">
-        <v>66.03770659893821</v>
+        <v>66.03770659893824</v>
       </c>
       <c r="P45" t="n">
-        <v>53.00108153270361</v>
+        <v>53.00108153270363</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.42981939748739</v>
+        <v>35.4298193974874</v>
       </c>
       <c r="R45" t="n">
-        <v>17.23283821436337</v>
+        <v>17.23283821436338</v>
       </c>
       <c r="S45" t="n">
-        <v>5.155486707956259</v>
+        <v>5.155486707956261</v>
       </c>
       <c r="T45" t="n">
         <v>1.118746702387675</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2326938859030716</v>
+        <v>0.2326938859030717</v>
       </c>
       <c r="H46" t="n">
-        <v>2.068860185574584</v>
+        <v>2.068860185574585</v>
       </c>
       <c r="I46" t="n">
-        <v>6.997739768794193</v>
+        <v>6.997739768794196</v>
       </c>
       <c r="J46" t="n">
         <v>16.45145773334717</v>
       </c>
       <c r="K46" t="n">
-        <v>27.03479874401141</v>
+        <v>27.03479874401142</v>
       </c>
       <c r="L46" t="n">
-        <v>34.5952346368985</v>
+        <v>34.59523463689851</v>
       </c>
       <c r="M46" t="n">
-        <v>36.47582431478785</v>
+        <v>36.47582431478787</v>
       </c>
       <c r="N46" t="n">
-        <v>35.60851074005825</v>
+        <v>35.60851074005826</v>
       </c>
       <c r="O46" t="n">
-        <v>32.89022307291781</v>
+        <v>32.89022307291783</v>
       </c>
       <c r="P46" t="n">
-        <v>28.14326780049512</v>
+        <v>28.14326780049514</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.48493984593812</v>
+        <v>19.48493984593813</v>
       </c>
       <c r="R46" t="n">
         <v>10.4627632697872</v>
       </c>
       <c r="S46" t="n">
-        <v>4.05521981160171</v>
+        <v>4.055219811601712</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9942375124949422</v>
+        <v>0.9942375124949426</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01269239377653119</v>
+        <v>0.0126923937765312</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="P8" t="n">
-        <v>11.94294668035388</v>
-      </c>
       <c r="Q8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="M9" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="L9" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="O9" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35337,7 +35337,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="N10" t="n">
         <v>11.94294668035388</v>
@@ -35346,7 +35346,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="P10" t="n">
-        <v>11.94294668035388</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.7541536751554</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>308.5531179134839</v>
+        <v>259.0853727384634</v>
       </c>
       <c r="L11" t="n">
         <v>433.2621813483079</v>
       </c>
       <c r="M11" t="n">
-        <v>322.0775347069236</v>
+        <v>488.2994335570999</v>
       </c>
       <c r="N11" t="n">
         <v>474.7149436466892</v>
@@ -35425,7 +35425,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P11" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392763</v>
       </c>
       <c r="Q11" t="n">
         <v>151.4053979468177</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.08575873302793</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>276.6278961224897</v>
       </c>
       <c r="L12" t="n">
         <v>429.7820376320563</v>
@@ -35498,16 +35498,16 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N12" t="n">
-        <v>588.6177156603984</v>
+        <v>588.6177156603985</v>
       </c>
       <c r="O12" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P12" t="n">
-        <v>358.1484747404786</v>
+        <v>102.7432614210054</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.22268280301585</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.96449230194274</v>
+        <v>41.96449230194271</v>
       </c>
       <c r="K13" t="n">
-        <v>145.9481234970643</v>
+        <v>145.9481234970642</v>
       </c>
       <c r="L13" t="n">
-        <v>221.1882479309778</v>
+        <v>221.1882479309777</v>
       </c>
       <c r="M13" t="n">
         <v>240.6308848082026</v>
       </c>
       <c r="N13" t="n">
-        <v>240.1967385284212</v>
+        <v>240.1967385284211</v>
       </c>
       <c r="O13" t="n">
         <v>217.3181526250073</v>
@@ -35586,7 +35586,7 @@
         <v>176.7174975873807</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.30267268165484</v>
+        <v>66.30267268165481</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>116.7541536751554</v>
       </c>
       <c r="K14" t="n">
-        <v>308.5531179134839</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L14" t="n">
         <v>433.2621813483079</v>
@@ -35662,7 +35662,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P14" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392763</v>
       </c>
       <c r="Q14" t="n">
         <v>151.4053979468177</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>87.08575873302793</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K15" t="n">
         <v>276.6278961224897</v>
@@ -35735,10 +35735,10 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N15" t="n">
-        <v>138.4174003317265</v>
+        <v>138.4174003317263</v>
       </c>
       <c r="O15" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P15" t="n">
         <v>358.1484747404786</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.96449230194276</v>
+        <v>41.96449230194277</v>
       </c>
       <c r="K16" t="n">
         <v>145.9481234970643</v>
       </c>
       <c r="L16" t="n">
-        <v>221.1882479309777</v>
+        <v>221.1882479309778</v>
       </c>
       <c r="M16" t="n">
         <v>240.6308848082027</v>
@@ -35820,10 +35820,10 @@
         <v>217.3181526250073</v>
       </c>
       <c r="P16" t="n">
-        <v>176.7174975873807</v>
+        <v>176.7174975873808</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.30267268165485</v>
+        <v>66.30267268165487</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.7541536751552</v>
+        <v>116.7541536751554</v>
       </c>
       <c r="K17" t="n">
-        <v>308.5531179134839</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L17" t="n">
         <v>433.2621813483079</v>
       </c>
       <c r="M17" t="n">
-        <v>488.2994335570999</v>
+        <v>488.2994335570997</v>
       </c>
       <c r="N17" t="n">
         <v>474.7149436466892</v>
@@ -35899,7 +35899,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P17" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392763</v>
       </c>
       <c r="Q17" t="n">
         <v>151.4053979468177</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>87.08575873302793</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K18" t="n">
         <v>276.6278961224897</v>
@@ -35975,7 +35975,7 @@
         <v>138.4174003317263</v>
       </c>
       <c r="O18" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P18" t="n">
         <v>358.1484747404786</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>60.97842272849971</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L19" t="n">
-        <v>136.2185471624131</v>
+        <v>136.2185471624132</v>
       </c>
       <c r="M19" t="n">
         <v>155.6611840396381</v>
@@ -36057,7 +36057,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P19" t="n">
-        <v>91.74779681881613</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.7541536751552</v>
+        <v>116.7541536751551</v>
       </c>
       <c r="K20" t="n">
-        <v>308.5531179134839</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L20" t="n">
         <v>433.2621813483079</v>
@@ -36136,7 +36136,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P20" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392763</v>
       </c>
       <c r="Q20" t="n">
         <v>151.4053979468177</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>87.08575873302793</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K21" t="n">
         <v>276.6278961224897</v>
       </c>
       <c r="L21" t="n">
-        <v>429.7820376320563</v>
+        <v>174.3768243125826</v>
       </c>
       <c r="M21" t="n">
         <v>560.2591188301566</v>
       </c>
       <c r="N21" t="n">
-        <v>138.4174003317265</v>
+        <v>588.6177156603985</v>
       </c>
       <c r="O21" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P21" t="n">
         <v>358.1484747404786</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.7951020091987</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>60.97842272849971</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L22" t="n">
-        <v>136.2185471624131</v>
+        <v>136.2185471624132</v>
       </c>
       <c r="M22" t="n">
         <v>155.6611840396381</v>
@@ -36294,7 +36294,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P22" t="n">
-        <v>91.74779681881613</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.7541536751554</v>
+        <v>116.7541536751551</v>
       </c>
       <c r="K23" t="n">
-        <v>308.5531179134839</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L23" t="n">
         <v>433.2621813483079</v>
       </c>
       <c r="M23" t="n">
-        <v>488.2994335570997</v>
+        <v>488.2994335570999</v>
       </c>
       <c r="N23" t="n">
         <v>474.7149436466892</v>
@@ -36373,7 +36373,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P23" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392763</v>
       </c>
       <c r="Q23" t="n">
         <v>151.4053979468177</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>87.08575873302793</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>276.6278961224897</v>
@@ -36446,16 +36446,16 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N24" t="n">
-        <v>138.4174003317265</v>
+        <v>420.2982610739527</v>
       </c>
       <c r="O24" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P24" t="n">
         <v>358.1484747404786</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.7951020091987</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>60.97842272849971</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L25" t="n">
-        <v>136.2185471624131</v>
+        <v>136.2185471624132</v>
       </c>
       <c r="M25" t="n">
         <v>155.6611840396381</v>
@@ -36531,7 +36531,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P25" t="n">
-        <v>91.74779681881613</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.659594887019</v>
+        <v>219.6595948870189</v>
       </c>
       <c r="K26" t="n">
         <v>411.4585591253475</v>
@@ -36604,7 +36604,7 @@
         <v>591.2048747689635</v>
       </c>
       <c r="N26" t="n">
-        <v>491.1400826413881</v>
+        <v>491.1400826413899</v>
       </c>
       <c r="O26" t="n">
         <v>498.3946048819195</v>
@@ -36616,7 +36616,7 @@
         <v>254.3108391586813</v>
       </c>
       <c r="R26" t="n">
-        <v>45.7595365104245</v>
+        <v>45.75953651042447</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>87.08575873302793</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K27" t="n">
         <v>276.6278961224897</v>
@@ -36683,10 +36683,10 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N27" t="n">
-        <v>138.4174003317267</v>
+        <v>138.4174003317265</v>
       </c>
       <c r="O27" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P27" t="n">
         <v>358.1484747404786</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.90023274524175</v>
+        <v>59.90023274524172</v>
       </c>
       <c r="K28" t="n">
         <v>163.8838639403633</v>
@@ -36765,13 +36765,13 @@
         <v>258.1324789717202</v>
       </c>
       <c r="O28" t="n">
-        <v>235.2538930683064</v>
+        <v>235.2538930683063</v>
       </c>
       <c r="P28" t="n">
         <v>194.6532380306797</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.23841312495385</v>
+        <v>84.23841312495382</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.659594887019</v>
+        <v>219.6595948870189</v>
       </c>
       <c r="K29" t="n">
         <v>411.4585591253475</v>
       </c>
       <c r="L29" t="n">
-        <v>536.1676225601714</v>
+        <v>536.1676225601715</v>
       </c>
       <c r="M29" t="n">
         <v>591.2048747689635</v>
       </c>
       <c r="N29" t="n">
-        <v>491.1400826413873</v>
+        <v>577.6203848585528</v>
       </c>
       <c r="O29" t="n">
         <v>498.3946048819195</v>
       </c>
       <c r="P29" t="n">
-        <v>407.9640097511398</v>
+        <v>321.4837075339755</v>
       </c>
       <c r="Q29" t="n">
         <v>254.3108391586813</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>87.08575873302793</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K30" t="n">
         <v>276.6278961224897</v>
@@ -36920,10 +36920,10 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N30" t="n">
-        <v>138.4174003317267</v>
+        <v>138.4174003317265</v>
       </c>
       <c r="O30" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P30" t="n">
         <v>358.1484747404786</v>
@@ -37069,16 +37069,16 @@
         <v>222.7494740521602</v>
       </c>
       <c r="K32" t="n">
-        <v>358.9653005428566</v>
+        <v>414.5484382904888</v>
       </c>
       <c r="L32" t="n">
-        <v>433.2621813483079</v>
+        <v>539.2575017253127</v>
       </c>
       <c r="M32" t="n">
-        <v>594.2947539341047</v>
+        <v>488.2994335570999</v>
       </c>
       <c r="N32" t="n">
-        <v>580.7102640236941</v>
+        <v>525.1271262760636</v>
       </c>
       <c r="O32" t="n">
         <v>501.4844840470607</v>
@@ -37087,10 +37087,10 @@
         <v>411.0538889162811</v>
       </c>
       <c r="Q32" t="n">
-        <v>257.4007183238226</v>
+        <v>257.4007183238225</v>
       </c>
       <c r="R32" t="n">
-        <v>48.84941567556578</v>
+        <v>48.84941567556571</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>87.08575873302793</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K33" t="n">
         <v>276.6278961224897</v>
@@ -37157,10 +37157,10 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N33" t="n">
-        <v>138.4174003317263</v>
+        <v>138.4174003317267</v>
       </c>
       <c r="O33" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P33" t="n">
         <v>358.1484747404786</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.99011191038304</v>
+        <v>62.99011191038296</v>
       </c>
       <c r="K34" t="n">
-        <v>166.9737431055046</v>
+        <v>166.9737431055045</v>
       </c>
       <c r="L34" t="n">
-        <v>242.213867539418</v>
+        <v>242.2138675394179</v>
       </c>
       <c r="M34" t="n">
-        <v>186.4956114462306</v>
+        <v>186.4956114462324</v>
       </c>
       <c r="N34" t="n">
-        <v>261.2223581368615</v>
+        <v>261.2223581368614</v>
       </c>
       <c r="O34" t="n">
-        <v>238.3437722334476</v>
+        <v>238.3437722334475</v>
       </c>
       <c r="P34" t="n">
         <v>197.743117195821</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.32829229009513</v>
+        <v>87.32829229009506</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>116.7541536751554</v>
       </c>
       <c r="K35" t="n">
-        <v>308.5531179134839</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L35" t="n">
         <v>433.2621813483079</v>
@@ -37321,7 +37321,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P35" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392763</v>
       </c>
       <c r="Q35" t="n">
         <v>151.4053979468177</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>87.08575873302793</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>276.6278961224897</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>429.7820376320563</v>
@@ -37394,16 +37394,16 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N36" t="n">
-        <v>138.4174003317265</v>
+        <v>588.6177156603985</v>
       </c>
       <c r="O36" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P36" t="n">
         <v>358.1484747404786</v>
       </c>
       <c r="Q36" t="n">
-        <v>194.7951020091987</v>
+        <v>108.3084415360438</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>60.97842272849971</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L37" t="n">
-        <v>136.2185471624131</v>
+        <v>136.2185471624132</v>
       </c>
       <c r="M37" t="n">
         <v>155.6611840396381</v>
@@ -37479,7 +37479,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P37" t="n">
-        <v>91.74779681881613</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>116.7541536751554</v>
       </c>
       <c r="K38" t="n">
-        <v>308.5531179134839</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L38" t="n">
         <v>433.2621813483079</v>
@@ -37558,7 +37558,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P38" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392763</v>
       </c>
       <c r="Q38" t="n">
         <v>151.4053979468177</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>87.08575873302793</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>276.6278961224897</v>
@@ -37631,16 +37631,16 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N39" t="n">
-        <v>138.4174003317265</v>
+        <v>588.6177156603985</v>
       </c>
       <c r="O39" t="n">
-        <v>462.1992730475754</v>
+        <v>293.8798184611297</v>
       </c>
       <c r="P39" t="n">
         <v>358.1484747404786</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.7951020091987</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>60.97842272849971</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L40" t="n">
-        <v>136.2185471624131</v>
+        <v>136.2185471624132</v>
       </c>
       <c r="M40" t="n">
         <v>155.6611840396381</v>
@@ -37716,7 +37716,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P40" t="n">
-        <v>91.74779681881613</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>116.7541536751554</v>
       </c>
       <c r="K41" t="n">
-        <v>308.5531179134839</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L41" t="n">
         <v>433.2621813483079</v>
@@ -37795,7 +37795,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P41" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392763</v>
       </c>
       <c r="Q41" t="n">
         <v>151.4053979468177</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>87.08575873302793</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K42" t="n">
         <v>276.6278961224897</v>
@@ -37868,10 +37868,10 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N42" t="n">
-        <v>138.4174003317265</v>
+        <v>138.4174003317263</v>
       </c>
       <c r="O42" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P42" t="n">
         <v>358.1484747404786</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>60.97842272849971</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L43" t="n">
-        <v>136.2185471624131</v>
+        <v>136.2185471624132</v>
       </c>
       <c r="M43" t="n">
         <v>155.6611840396381</v>
@@ -37953,7 +37953,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P43" t="n">
-        <v>91.74779681881613</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.7541536751552</v>
+        <v>116.7541536751554</v>
       </c>
       <c r="K44" t="n">
-        <v>308.5531179134839</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L44" t="n">
         <v>433.2621813483079</v>
       </c>
       <c r="M44" t="n">
-        <v>488.2994335570999</v>
+        <v>488.2994335570997</v>
       </c>
       <c r="N44" t="n">
         <v>474.7149436466892</v>
@@ -38032,7 +38032,7 @@
         <v>395.4891636700559</v>
       </c>
       <c r="P44" t="n">
-        <v>305.0585685392762</v>
+        <v>305.0585685392763</v>
       </c>
       <c r="Q44" t="n">
         <v>151.4053979468177</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>87.08575873302793</v>
+        <v>87.08575873302794</v>
       </c>
       <c r="K45" t="n">
         <v>276.6278961224897</v>
@@ -38105,10 +38105,10 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N45" t="n">
-        <v>138.4174003317265</v>
+        <v>138.4174003317263</v>
       </c>
       <c r="O45" t="n">
-        <v>462.1992730475754</v>
+        <v>462.1992730475755</v>
       </c>
       <c r="P45" t="n">
         <v>358.1484747404786</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>60.97842272849971</v>
+        <v>60.97842272849972</v>
       </c>
       <c r="L46" t="n">
-        <v>136.2185471624131</v>
+        <v>136.2185471624132</v>
       </c>
       <c r="M46" t="n">
         <v>155.6611840396381</v>
@@ -38190,7 +38190,7 @@
         <v>132.3484518564428</v>
       </c>
       <c r="P46" t="n">
-        <v>91.74779681881613</v>
+        <v>91.74779681881614</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
